--- a/results/20241115_CDL_UMCU_Publications.xlsx
+++ b/results/20241115_CDL_UMCU_Publications.xlsx
@@ -11,15 +11,14 @@
     <sheet name="Preprints" sheetId="2" r:id="rId2"/>
     <sheet name="AuthorCount" sheetId="3" r:id="rId3"/>
     <sheet name="YearCount" sheetId="4" r:id="rId4"/>
-    <sheet name="YearJournalCount" sheetId="5" r:id="rId5"/>
-    <sheet name="PubTypeYearCount" sheetId="6" r:id="rId6"/>
+    <sheet name="PubTypeYearCount" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="559">
   <si>
     <t>PubMed ID</t>
   </si>
@@ -42,6 +41,12 @@
     <t>DOI Link</t>
   </si>
   <si>
+    <t>Access Type</t>
+  </si>
+  <si>
+    <t>Main Author</t>
+  </si>
+  <si>
     <t>25282103</t>
   </si>
   <si>
@@ -477,49 +482,49 @@
     <t>Schiffelers RM</t>
   </si>
   <si>
+    <t>van Solinge W</t>
+  </si>
+  <si>
+    <t>Pasterkamp G et al., van der Laan SW</t>
+  </si>
+  <si>
+    <t>van der Laan SW</t>
+  </si>
+  <si>
+    <t>Haitjema S, Mokry M, Pasterkamp G</t>
+  </si>
+  <si>
     <t>van Solinge W et al.</t>
   </si>
   <si>
-    <t>Pasterkamp G et al., van der Laan SW</t>
-  </si>
-  <si>
-    <t>van der Laan SW</t>
-  </si>
-  <si>
-    <t>Haitjema S, Mokry M, Pasterkamp G</t>
-  </si>
-  <si>
     <t>Haitjema S, Pasterkamp G</t>
   </si>
   <si>
+    <t>Haitjema S, van Solinge W</t>
+  </si>
+  <si>
+    <t>Mokry M, Pasterkamp G</t>
+  </si>
+  <si>
+    <t>Haitjema S</t>
+  </si>
+  <si>
+    <t>Mokry M, Pasterkamp G, van der Laan SW</t>
+  </si>
+  <si>
     <t>Haitjema S, van Solinge W et al.</t>
   </si>
   <si>
-    <t>Mokry M, Pasterkamp G</t>
-  </si>
-  <si>
-    <t>Haitjema S</t>
-  </si>
-  <si>
-    <t>Haitjema S, van Solinge W</t>
-  </si>
-  <si>
-    <t>Mokry M, Pasterkamp G, van der Laan SW</t>
-  </si>
-  <si>
-    <t>van Solinge W</t>
-  </si>
-  <si>
     <t>Mokry M</t>
   </si>
   <si>
     <t>Haitjema S, Mokry M</t>
   </si>
   <si>
-    <t>Haitjema S, Pasterkamp G, van Solinge W et al.</t>
-  </si>
-  <si>
-    <t>Haitjema S, van Solinge W et al., van der Laan SW</t>
+    <t>Haitjema S, Pasterkamp G, van Solinge W</t>
+  </si>
+  <si>
+    <t>Haitjema S, van Solinge W, van der Laan SW</t>
   </si>
   <si>
     <t>Haitjema S, Mokry M, Pasterkamp G, van der Laan SW</t>
@@ -1626,6 +1631,9 @@
     <t>https://doi.org/10.1093/cvr/cvae209</t>
   </si>
   <si>
+    <t>closed access</t>
+  </si>
+  <si>
     <t>36798294</t>
   </si>
   <si>
@@ -1687,12 +1695,6 @@
   </si>
   <si>
     <t>Haitjema S, Mokry M, Pasterkamp G, Schiffelers RM, van Solinge W, van der Laan SW</t>
-  </si>
-  <si>
-    <t>Haitjema S, Pasterkamp G, van Solinge W</t>
-  </si>
-  <si>
-    <t>Haitjema S, van Solinge W, van der Laan SW</t>
   </si>
 </sst>
 </file>
@@ -2063,13 +2065,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G142"/>
+  <dimension ref="A1:I142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2091,1137 +2093,1437 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C2">
         <v>2014</v>
       </c>
       <c r="D2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>396</v>
+      </c>
+      <c r="H2" t="s">
+        <v>537</v>
+      </c>
+      <c r="I2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C3">
         <v>2015</v>
       </c>
       <c r="D3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F3" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>397</v>
+      </c>
+      <c r="H3" t="s">
+        <v>537</v>
+      </c>
+      <c r="I3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C4">
         <v>2015</v>
       </c>
       <c r="D4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F4" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>398</v>
+      </c>
+      <c r="H4" t="s">
+        <v>537</v>
+      </c>
+      <c r="I4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C5">
         <v>2015</v>
       </c>
       <c r="D5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F5" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>399</v>
+      </c>
+      <c r="H5" t="s">
+        <v>537</v>
+      </c>
+      <c r="I5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C6">
         <v>2015</v>
       </c>
       <c r="D6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F6" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>400</v>
+      </c>
+      <c r="H6" t="s">
+        <v>537</v>
+      </c>
+      <c r="I6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C7">
         <v>2017</v>
       </c>
       <c r="D7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>401</v>
+      </c>
+      <c r="H7" t="s">
+        <v>537</v>
+      </c>
+      <c r="I7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C8">
         <v>2017</v>
       </c>
       <c r="D8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E8" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F8" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>402</v>
+      </c>
+      <c r="H8" t="s">
+        <v>537</v>
+      </c>
+      <c r="I8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C9">
         <v>2018</v>
       </c>
       <c r="D9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E9" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F9" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>403</v>
+      </c>
+      <c r="H9" t="s">
+        <v>537</v>
+      </c>
+      <c r="I9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C10">
         <v>2018</v>
       </c>
       <c r="D10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E10" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F10" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>404</v>
+      </c>
+      <c r="H10" t="s">
+        <v>537</v>
+      </c>
+      <c r="I10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C11">
         <v>2019</v>
       </c>
       <c r="D11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E11" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F11" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>405</v>
+      </c>
+      <c r="H11" t="s">
+        <v>537</v>
+      </c>
+      <c r="I11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C12">
         <v>2019</v>
       </c>
       <c r="D12" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E12" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F12" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>406</v>
+      </c>
+      <c r="H12" t="s">
+        <v>537</v>
+      </c>
+      <c r="I12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C13">
         <v>2019</v>
       </c>
       <c r="D13" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E13" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F13" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>407</v>
+      </c>
+      <c r="H13" t="s">
+        <v>537</v>
+      </c>
+      <c r="I13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C14">
         <v>2019</v>
       </c>
       <c r="D14" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E14" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F14" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>408</v>
+      </c>
+      <c r="H14" t="s">
+        <v>537</v>
+      </c>
+      <c r="I14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C15">
         <v>2020</v>
       </c>
       <c r="D15" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E15" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F15" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>409</v>
+      </c>
+      <c r="H15" t="s">
+        <v>537</v>
+      </c>
+      <c r="I15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C16">
         <v>2020</v>
       </c>
       <c r="D16" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E16" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F16" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>410</v>
+      </c>
+      <c r="H16" t="s">
+        <v>537</v>
+      </c>
+      <c r="I16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C17">
         <v>2020</v>
       </c>
       <c r="D17" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E17" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F17" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>411</v>
+      </c>
+      <c r="H17" t="s">
+        <v>537</v>
+      </c>
+      <c r="I17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C18">
         <v>2020</v>
       </c>
       <c r="D18" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E18" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F18" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>412</v>
+      </c>
+      <c r="H18" t="s">
+        <v>537</v>
+      </c>
+      <c r="I18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C19">
         <v>2021</v>
       </c>
       <c r="D19" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E19" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F19" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>413</v>
+      </c>
+      <c r="H19" t="s">
+        <v>537</v>
+      </c>
+      <c r="I19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C20">
         <v>2020</v>
       </c>
       <c r="D20" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E20" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F20" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>414</v>
+      </c>
+      <c r="H20" t="s">
+        <v>537</v>
+      </c>
+      <c r="I20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C21">
         <v>2020</v>
       </c>
       <c r="D21" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E21" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F21" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>415</v>
+      </c>
+      <c r="H21" t="s">
+        <v>537</v>
+      </c>
+      <c r="I21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C22">
         <v>2021</v>
       </c>
       <c r="D22" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E22" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F22" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>416</v>
+      </c>
+      <c r="H22" t="s">
+        <v>537</v>
+      </c>
+      <c r="I22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C23">
         <v>2020</v>
       </c>
       <c r="D23" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E23" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F23" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>417</v>
+      </c>
+      <c r="H23" t="s">
+        <v>537</v>
+      </c>
+      <c r="I23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C24">
         <v>2020</v>
       </c>
       <c r="D24" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E24" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F24" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>418</v>
+      </c>
+      <c r="H24" t="s">
+        <v>537</v>
+      </c>
+      <c r="I24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C25">
         <v>2021</v>
       </c>
       <c r="D25" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E25" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F25" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>419</v>
+      </c>
+      <c r="H25" t="s">
+        <v>537</v>
+      </c>
+      <c r="I25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C26">
         <v>2021</v>
       </c>
       <c r="D26" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E26" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F26" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>420</v>
+      </c>
+      <c r="H26" t="s">
+        <v>537</v>
+      </c>
+      <c r="I26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C27">
         <v>2021</v>
       </c>
       <c r="D27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E27" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F27" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>421</v>
+      </c>
+      <c r="H27" t="s">
+        <v>537</v>
+      </c>
+      <c r="I27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C28">
         <v>2021</v>
       </c>
       <c r="D28" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E28" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F28" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>422</v>
+      </c>
+      <c r="H28" t="s">
+        <v>537</v>
+      </c>
+      <c r="I28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C29">
         <v>2021</v>
       </c>
       <c r="D29" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E29" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F29" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>423</v>
+      </c>
+      <c r="H29" t="s">
+        <v>537</v>
+      </c>
+      <c r="I29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C30">
         <v>2021</v>
       </c>
       <c r="D30" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E30" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F30" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>424</v>
+      </c>
+      <c r="H30" t="s">
+        <v>537</v>
+      </c>
+      <c r="I30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C31">
         <v>2021</v>
       </c>
       <c r="D31" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E31" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F31" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>425</v>
+      </c>
+      <c r="H31" t="s">
+        <v>537</v>
+      </c>
+      <c r="I31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C32">
         <v>2021</v>
       </c>
       <c r="D32" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E32" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F32" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>426</v>
+      </c>
+      <c r="H32" t="s">
+        <v>537</v>
+      </c>
+      <c r="I32" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C33">
         <v>2021</v>
       </c>
       <c r="D33" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E33" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F33" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>427</v>
+      </c>
+      <c r="H33" t="s">
+        <v>537</v>
+      </c>
+      <c r="I33" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C34">
         <v>2021</v>
       </c>
       <c r="D34" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E34" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F34" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>428</v>
+      </c>
+      <c r="H34" t="s">
+        <v>537</v>
+      </c>
+      <c r="I34" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C35">
         <v>2021</v>
       </c>
       <c r="D35" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E35" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F35" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>429</v>
+      </c>
+      <c r="H35" t="s">
+        <v>537</v>
+      </c>
+      <c r="I35" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C36">
         <v>2021</v>
       </c>
       <c r="D36" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E36" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F36" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>430</v>
+      </c>
+      <c r="H36" t="s">
+        <v>537</v>
+      </c>
+      <c r="I36" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C37">
         <v>2021</v>
       </c>
       <c r="D37" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F37" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>431</v>
+      </c>
+      <c r="H37" t="s">
+        <v>537</v>
+      </c>
+      <c r="I37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C38">
         <v>2021</v>
       </c>
       <c r="D38" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E38" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F38" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>432</v>
+      </c>
+      <c r="H38" t="s">
+        <v>537</v>
+      </c>
+      <c r="I38" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C39">
         <v>2021</v>
       </c>
       <c r="D39" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E39" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F39" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>433</v>
+      </c>
+      <c r="H39" t="s">
+        <v>537</v>
+      </c>
+      <c r="I39" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C40">
         <v>2021</v>
       </c>
       <c r="D40" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E40" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F40" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>434</v>
+      </c>
+      <c r="H40" t="s">
+        <v>537</v>
+      </c>
+      <c r="I40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C41">
         <v>2021</v>
       </c>
       <c r="D41" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E41" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F41" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>435</v>
+      </c>
+      <c r="H41" t="s">
+        <v>537</v>
+      </c>
+      <c r="I41" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C42">
         <v>2021</v>
       </c>
       <c r="D42" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E42" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F42" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>436</v>
+      </c>
+      <c r="H42" t="s">
+        <v>537</v>
+      </c>
+      <c r="I42" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C43">
         <v>2021</v>
       </c>
       <c r="D43" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E43" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F43" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>437</v>
+      </c>
+      <c r="H43" t="s">
+        <v>537</v>
+      </c>
+      <c r="I43" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C44">
         <v>2021</v>
       </c>
       <c r="D44" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E44" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F44" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>438</v>
+      </c>
+      <c r="H44" t="s">
+        <v>537</v>
+      </c>
+      <c r="I44" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C45">
         <v>2021</v>
       </c>
       <c r="D45" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E45" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F45" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>439</v>
+      </c>
+      <c r="H45" t="s">
+        <v>537</v>
+      </c>
+      <c r="I45" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C46">
         <v>2021</v>
       </c>
       <c r="D46" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E46" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F46" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>440</v>
+      </c>
+      <c r="H46" t="s">
+        <v>537</v>
+      </c>
+      <c r="I46" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C47">
         <v>2021</v>
       </c>
       <c r="D47" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E47" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F47" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>441</v>
+      </c>
+      <c r="H47" t="s">
+        <v>537</v>
+      </c>
+      <c r="I47" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C48">
         <v>2021</v>
       </c>
       <c r="D48" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E48" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F48" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>442</v>
+      </c>
+      <c r="H48" t="s">
+        <v>537</v>
+      </c>
+      <c r="I48" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C49">
         <v>2022</v>
       </c>
       <c r="D49" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E49" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F49" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>443</v>
+      </c>
+      <c r="H49" t="s">
+        <v>537</v>
+      </c>
+      <c r="I49" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C50">
         <v>2022</v>
       </c>
       <c r="D50" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E50" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F50" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>444</v>
+      </c>
+      <c r="H50" t="s">
+        <v>537</v>
+      </c>
+      <c r="I50" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
         <v>160</v>
@@ -3230,320 +3532,404 @@
         <v>2021</v>
       </c>
       <c r="D51" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E51" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F51" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>445</v>
+      </c>
+      <c r="H51" t="s">
+        <v>537</v>
+      </c>
+      <c r="I51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C52">
         <v>2022</v>
       </c>
       <c r="D52" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E52" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F52" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>446</v>
+      </c>
+      <c r="H52" t="s">
+        <v>537</v>
+      </c>
+      <c r="I52" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C53">
         <v>2021</v>
       </c>
       <c r="D53" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E53" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F53" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>447</v>
+      </c>
+      <c r="H53" t="s">
+        <v>537</v>
+      </c>
+      <c r="I53" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C54">
         <v>2021</v>
       </c>
       <c r="D54" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E54" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F54" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>448</v>
+      </c>
+      <c r="H54" t="s">
+        <v>537</v>
+      </c>
+      <c r="I54" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C55">
         <v>2022</v>
       </c>
       <c r="D55" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E55" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F55" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>449</v>
+      </c>
+      <c r="H55" t="s">
+        <v>537</v>
+      </c>
+      <c r="I55" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C56">
         <v>2022</v>
       </c>
       <c r="D56" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E56" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F56" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>450</v>
+      </c>
+      <c r="H56" t="s">
+        <v>537</v>
+      </c>
+      <c r="I56" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C57">
         <v>2022</v>
       </c>
       <c r="D57" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E57" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F57" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>451</v>
+      </c>
+      <c r="H57" t="s">
+        <v>537</v>
+      </c>
+      <c r="I57" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C58">
         <v>2022</v>
       </c>
       <c r="D58" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E58" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F58" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>452</v>
+      </c>
+      <c r="H58" t="s">
+        <v>537</v>
+      </c>
+      <c r="I58" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C59">
         <v>2022</v>
       </c>
       <c r="D59" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E59" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F59" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>453</v>
+      </c>
+      <c r="H59" t="s">
+        <v>537</v>
+      </c>
+      <c r="I59" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C60">
         <v>2022</v>
       </c>
       <c r="D60" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E60" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F60" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>454</v>
+      </c>
+      <c r="H60" t="s">
+        <v>537</v>
+      </c>
+      <c r="I60" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C61">
         <v>2021</v>
       </c>
       <c r="D61" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E61" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F61" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>455</v>
+      </c>
+      <c r="H61" t="s">
+        <v>537</v>
+      </c>
+      <c r="I61" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C62">
         <v>2022</v>
       </c>
       <c r="D62" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E62" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F62" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>456</v>
+      </c>
+      <c r="H62" t="s">
+        <v>537</v>
+      </c>
+      <c r="I62" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C63">
         <v>2022</v>
       </c>
       <c r="D63" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E63" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F63" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>457</v>
+      </c>
+      <c r="H63" t="s">
+        <v>537</v>
+      </c>
+      <c r="I63" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C64">
         <v>2022</v>
       </c>
       <c r="D64" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E64" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F64" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>458</v>
+      </c>
+      <c r="H64" t="s">
+        <v>537</v>
+      </c>
+      <c r="I64" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B65" t="s">
         <v>160</v>
@@ -3552,389 +3938,491 @@
         <v>2022</v>
       </c>
       <c r="D65" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E65" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F65" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>459</v>
+      </c>
+      <c r="H65" t="s">
+        <v>537</v>
+      </c>
+      <c r="I65" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C66">
         <v>2022</v>
       </c>
       <c r="D66" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E66" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F66" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>460</v>
+      </c>
+      <c r="H66" t="s">
+        <v>537</v>
+      </c>
+      <c r="I66" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C67">
         <v>2022</v>
       </c>
       <c r="D67" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E67" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F67" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>461</v>
+      </c>
+      <c r="H67" t="s">
+        <v>537</v>
+      </c>
+      <c r="I67" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C68">
         <v>2022</v>
       </c>
       <c r="D68" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E68" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F68" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>462</v>
+      </c>
+      <c r="H68" t="s">
+        <v>537</v>
+      </c>
+      <c r="I68" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C69">
         <v>2022</v>
       </c>
       <c r="D69" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E69" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F69" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>463</v>
+      </c>
+      <c r="H69" t="s">
+        <v>537</v>
+      </c>
+      <c r="I69" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C70">
         <v>2022</v>
       </c>
       <c r="D70" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E70" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F70" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>464</v>
+      </c>
+      <c r="H70" t="s">
+        <v>537</v>
+      </c>
+      <c r="I70" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C71">
         <v>2022</v>
       </c>
       <c r="D71" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E71" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F71" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>465</v>
+      </c>
+      <c r="H71" t="s">
+        <v>537</v>
+      </c>
+      <c r="I71" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C72">
         <v>2022</v>
       </c>
       <c r="D72" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E72" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F72" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>466</v>
+      </c>
+      <c r="H72" t="s">
+        <v>537</v>
+      </c>
+      <c r="I72" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B73" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C73">
         <v>2022</v>
       </c>
       <c r="D73" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E73" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F73" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>467</v>
+      </c>
+      <c r="H73" t="s">
+        <v>537</v>
+      </c>
+      <c r="I73" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C74">
         <v>2022</v>
       </c>
       <c r="D74" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E74" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F74" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>468</v>
+      </c>
+      <c r="H74" t="s">
+        <v>537</v>
+      </c>
+      <c r="I74" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C75">
         <v>2022</v>
       </c>
       <c r="D75" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E75" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F75" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>469</v>
+      </c>
+      <c r="H75" t="s">
+        <v>537</v>
+      </c>
+      <c r="I75" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C76">
         <v>2022</v>
       </c>
       <c r="D76" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E76" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F76" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>470</v>
+      </c>
+      <c r="H76" t="s">
+        <v>537</v>
+      </c>
+      <c r="I76" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C77">
         <v>2022</v>
       </c>
       <c r="D77" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E77" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F77" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>471</v>
+      </c>
+      <c r="H77" t="s">
+        <v>537</v>
+      </c>
+      <c r="I77" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C78">
         <v>2022</v>
       </c>
       <c r="D78" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E78" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F78" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>472</v>
+      </c>
+      <c r="H78" t="s">
+        <v>537</v>
+      </c>
+      <c r="I78" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B79" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C79">
         <v>2022</v>
       </c>
       <c r="D79" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E79" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F79" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>473</v>
+      </c>
+      <c r="H79" t="s">
+        <v>537</v>
+      </c>
+      <c r="I79" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B80" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C80">
         <v>2022</v>
       </c>
       <c r="D80" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E80" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F80" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>474</v>
+      </c>
+      <c r="H80" t="s">
+        <v>537</v>
+      </c>
+      <c r="I80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B81" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C81">
         <v>2022</v>
       </c>
       <c r="D81" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E81" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F81" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>475</v>
+      </c>
+      <c r="H81" t="s">
+        <v>537</v>
+      </c>
+      <c r="I81" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B82" t="s">
         <v>160</v>
@@ -3943,1396 +4431,1762 @@
         <v>2023</v>
       </c>
       <c r="D82" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E82" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F82" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>476</v>
+      </c>
+      <c r="H82" t="s">
+        <v>537</v>
+      </c>
+      <c r="I82" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C83">
         <v>2022</v>
       </c>
       <c r="D83" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E83" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F83" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>477</v>
+      </c>
+      <c r="H83" t="s">
+        <v>537</v>
+      </c>
+      <c r="I83" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B84" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C84">
         <v>2022</v>
       </c>
       <c r="D84" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E84" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F84" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>478</v>
+      </c>
+      <c r="H84" t="s">
+        <v>537</v>
+      </c>
+      <c r="I84" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B85" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C85">
         <v>2022</v>
       </c>
       <c r="D85" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E85" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F85" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>479</v>
+      </c>
+      <c r="H85" t="s">
+        <v>537</v>
+      </c>
+      <c r="I85" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B86" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C86">
         <v>2023</v>
       </c>
       <c r="D86" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E86" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F86" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>480</v>
+      </c>
+      <c r="H86" t="s">
+        <v>537</v>
+      </c>
+      <c r="I86" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B87" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C87">
         <v>2023</v>
       </c>
       <c r="D87" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E87" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F87" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>481</v>
+      </c>
+      <c r="H87" t="s">
+        <v>537</v>
+      </c>
+      <c r="I87" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B88" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C88">
         <v>2023</v>
       </c>
       <c r="D88" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E88" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F88" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>482</v>
+      </c>
+      <c r="H88" t="s">
+        <v>537</v>
+      </c>
+      <c r="I88" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B89" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C89">
         <v>2023</v>
       </c>
       <c r="D89" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E89" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F89" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>483</v>
+      </c>
+      <c r="H89" t="s">
+        <v>537</v>
+      </c>
+      <c r="I89" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B90" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C90">
         <v>2022</v>
       </c>
       <c r="D90" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E90" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F90" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>484</v>
+      </c>
+      <c r="H90" t="s">
+        <v>537</v>
+      </c>
+      <c r="I90" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B91" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C91">
         <v>2022</v>
       </c>
       <c r="D91" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E91" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F91" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>485</v>
+      </c>
+      <c r="H91" t="s">
+        <v>537</v>
+      </c>
+      <c r="I91" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B92" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C92">
         <v>2023</v>
       </c>
       <c r="D92" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E92" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F92" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>486</v>
+      </c>
+      <c r="H92" t="s">
+        <v>537</v>
+      </c>
+      <c r="I92" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B93" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C93">
         <v>2023</v>
       </c>
       <c r="D93" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E93" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F93" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>487</v>
+      </c>
+      <c r="H93" t="s">
+        <v>537</v>
+      </c>
+      <c r="I93" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B94" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C94">
         <v>2023</v>
       </c>
       <c r="D94" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E94" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F94" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>488</v>
+      </c>
+      <c r="H94" t="s">
+        <v>537</v>
+      </c>
+      <c r="I94" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B95" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C95">
         <v>2023</v>
       </c>
       <c r="D95" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E95" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F95" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>489</v>
+      </c>
+      <c r="H95" t="s">
+        <v>537</v>
+      </c>
+      <c r="I95" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B96" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C96">
         <v>2023</v>
       </c>
       <c r="D96" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E96" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F96" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>490</v>
+      </c>
+      <c r="H96" t="s">
+        <v>537</v>
+      </c>
+      <c r="I96" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B97" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C97">
         <v>2023</v>
       </c>
       <c r="D97" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E97" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F97" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>491</v>
+      </c>
+      <c r="H97" t="s">
+        <v>537</v>
+      </c>
+      <c r="I97" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B98" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C98">
         <v>2023</v>
       </c>
       <c r="D98" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E98" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F98" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>492</v>
+      </c>
+      <c r="H98" t="s">
+        <v>537</v>
+      </c>
+      <c r="I98" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B99" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C99">
         <v>2023</v>
       </c>
       <c r="D99" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E99" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F99" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>493</v>
+      </c>
+      <c r="H99" t="s">
+        <v>537</v>
+      </c>
+      <c r="I99" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B100" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C100">
         <v>2023</v>
       </c>
       <c r="D100" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E100" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F100" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>494</v>
+      </c>
+      <c r="H100" t="s">
+        <v>537</v>
+      </c>
+      <c r="I100" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B101" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C101">
         <v>2023</v>
       </c>
       <c r="D101" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E101" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F101" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>495</v>
+      </c>
+      <c r="H101" t="s">
+        <v>537</v>
+      </c>
+      <c r="I101" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B102" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C102">
         <v>2023</v>
       </c>
       <c r="D102" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E102" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F102" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>496</v>
+      </c>
+      <c r="H102" t="s">
+        <v>537</v>
+      </c>
+      <c r="I102" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B103" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C103">
         <v>2023</v>
       </c>
       <c r="D103" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E103" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F103" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>497</v>
+      </c>
+      <c r="H103" t="s">
+        <v>537</v>
+      </c>
+      <c r="I103" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B104" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C104">
         <v>2023</v>
       </c>
       <c r="D104" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E104" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F104" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+        <v>498</v>
+      </c>
+      <c r="H104" t="s">
+        <v>537</v>
+      </c>
+      <c r="I104" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B105" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C105">
         <v>2023</v>
       </c>
       <c r="D105" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E105" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F105" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+        <v>499</v>
+      </c>
+      <c r="H105" t="s">
+        <v>537</v>
+      </c>
+      <c r="I105" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B106" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C106">
         <v>2023</v>
       </c>
       <c r="D106" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E106" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F106" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+        <v>500</v>
+      </c>
+      <c r="H106" t="s">
+        <v>537</v>
+      </c>
+      <c r="I106" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B107" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C107">
         <v>2023</v>
       </c>
       <c r="D107" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E107" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F107" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+        <v>501</v>
+      </c>
+      <c r="H107" t="s">
+        <v>537</v>
+      </c>
+      <c r="I107" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B108" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C108">
         <v>2023</v>
       </c>
       <c r="D108" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E108" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F108" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+        <v>502</v>
+      </c>
+      <c r="H108" t="s">
+        <v>537</v>
+      </c>
+      <c r="I108" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B109" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C109">
         <v>2023</v>
       </c>
       <c r="D109" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E109" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F109" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <v>503</v>
+      </c>
+      <c r="H109" t="s">
+        <v>537</v>
+      </c>
+      <c r="I109" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B110" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C110">
         <v>2023</v>
       </c>
       <c r="D110" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E110" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F110" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+        <v>504</v>
+      </c>
+      <c r="H110" t="s">
+        <v>537</v>
+      </c>
+      <c r="I110" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B111" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C111">
         <v>2023</v>
       </c>
       <c r="D111" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E111" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F111" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+        <v>505</v>
+      </c>
+      <c r="H111" t="s">
+        <v>537</v>
+      </c>
+      <c r="I111" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B112" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C112">
         <v>2023</v>
       </c>
       <c r="D112" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E112" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F112" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+        <v>506</v>
+      </c>
+      <c r="H112" t="s">
+        <v>537</v>
+      </c>
+      <c r="I112" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B113" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C113">
         <v>2023</v>
       </c>
       <c r="D113" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E113" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F113" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <v>507</v>
+      </c>
+      <c r="H113" t="s">
+        <v>537</v>
+      </c>
+      <c r="I113" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B114" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C114">
         <v>2023</v>
       </c>
       <c r="D114" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E114" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F114" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+        <v>508</v>
+      </c>
+      <c r="H114" t="s">
+        <v>537</v>
+      </c>
+      <c r="I114" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B115" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C115">
         <v>2023</v>
       </c>
       <c r="D115" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E115" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F115" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+        <v>509</v>
+      </c>
+      <c r="H115" t="s">
+        <v>537</v>
+      </c>
+      <c r="I115" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B116" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C116">
         <v>2022</v>
       </c>
       <c r="D116" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E116" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F116" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+        <v>510</v>
+      </c>
+      <c r="H116" t="s">
+        <v>537</v>
+      </c>
+      <c r="I116" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B117" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C117">
         <v>2023</v>
       </c>
       <c r="D117" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E117" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F117" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+        <v>511</v>
+      </c>
+      <c r="H117" t="s">
+        <v>537</v>
+      </c>
+      <c r="I117" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B118" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C118">
         <v>2023</v>
       </c>
       <c r="D118" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E118" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F118" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+        <v>512</v>
+      </c>
+      <c r="H118" t="s">
+        <v>537</v>
+      </c>
+      <c r="I118" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B119" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C119">
         <v>2024</v>
       </c>
       <c r="D119" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E119" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F119" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+        <v>513</v>
+      </c>
+      <c r="H119" t="s">
+        <v>537</v>
+      </c>
+      <c r="I119" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B120" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C120">
         <v>2024</v>
       </c>
       <c r="D120" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E120" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F120" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+        <v>514</v>
+      </c>
+      <c r="H120" t="s">
+        <v>537</v>
+      </c>
+      <c r="I120" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B121" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C121">
         <v>2024</v>
       </c>
       <c r="D121" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E121" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F121" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+        <v>515</v>
+      </c>
+      <c r="H121" t="s">
+        <v>537</v>
+      </c>
+      <c r="I121" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B122" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C122">
         <v>2024</v>
       </c>
       <c r="D122" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E122" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F122" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+        <v>516</v>
+      </c>
+      <c r="H122" t="s">
+        <v>537</v>
+      </c>
+      <c r="I122" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B123" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C123">
         <v>2024</v>
       </c>
       <c r="D123" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E123" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F123" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <v>517</v>
+      </c>
+      <c r="H123" t="s">
+        <v>537</v>
+      </c>
+      <c r="I123" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B124" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C124">
         <v>2024</v>
       </c>
       <c r="D124" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E124" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F124" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+        <v>518</v>
+      </c>
+      <c r="H124" t="s">
+        <v>537</v>
+      </c>
+      <c r="I124" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B125" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C125">
         <v>2024</v>
       </c>
       <c r="D125" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E125" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F125" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+        <v>519</v>
+      </c>
+      <c r="H125" t="s">
+        <v>537</v>
+      </c>
+      <c r="I125" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B126" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C126">
         <v>2023</v>
       </c>
       <c r="D126" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E126" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F126" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
+        <v>520</v>
+      </c>
+      <c r="H126" t="s">
+        <v>537</v>
+      </c>
+      <c r="I126" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B127" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C127">
         <v>2024</v>
       </c>
       <c r="D127" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E127" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F127" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
+        <v>521</v>
+      </c>
+      <c r="H127" t="s">
+        <v>537</v>
+      </c>
+      <c r="I127" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B128" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C128">
         <v>2024</v>
       </c>
       <c r="D128" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E128" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F128" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
+        <v>522</v>
+      </c>
+      <c r="H128" t="s">
+        <v>537</v>
+      </c>
+      <c r="I128" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B129" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C129">
         <v>2024</v>
       </c>
       <c r="D129" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E129" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F129" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
+        <v>523</v>
+      </c>
+      <c r="H129" t="s">
+        <v>537</v>
+      </c>
+      <c r="I129" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B130" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C130">
         <v>2021</v>
       </c>
       <c r="D130" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E130" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F130" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+        <v>524</v>
+      </c>
+      <c r="H130" t="s">
+        <v>537</v>
+      </c>
+      <c r="I130" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B131" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C131">
         <v>2024</v>
       </c>
       <c r="D131" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E131" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F131" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
+        <v>525</v>
+      </c>
+      <c r="H131" t="s">
+        <v>537</v>
+      </c>
+      <c r="I131" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B132" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C132">
         <v>2024</v>
       </c>
       <c r="D132" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E132" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F132" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
+        <v>526</v>
+      </c>
+      <c r="H132" t="s">
+        <v>537</v>
+      </c>
+      <c r="I132" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B133" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C133">
         <v>2024</v>
       </c>
       <c r="D133" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E133" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F133" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
+        <v>527</v>
+      </c>
+      <c r="H133" t="s">
+        <v>537</v>
+      </c>
+      <c r="I133" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B134" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C134">
         <v>2024</v>
       </c>
       <c r="D134" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E134" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F134" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
+        <v>528</v>
+      </c>
+      <c r="H134" t="s">
+        <v>537</v>
+      </c>
+      <c r="I134" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B135" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C135">
         <v>2024</v>
       </c>
       <c r="D135" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E135" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F135" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
+        <v>529</v>
+      </c>
+      <c r="H135" t="s">
+        <v>537</v>
+      </c>
+      <c r="I135" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B136" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C136">
         <v>2024</v>
       </c>
       <c r="D136" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E136" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F136" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
+        <v>530</v>
+      </c>
+      <c r="H136" t="s">
+        <v>537</v>
+      </c>
+      <c r="I136" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B137" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C137">
         <v>2024</v>
       </c>
       <c r="D137" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E137" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F137" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
+        <v>531</v>
+      </c>
+      <c r="H137" t="s">
+        <v>537</v>
+      </c>
+      <c r="I137" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B138" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C138">
         <v>2023</v>
       </c>
       <c r="D138" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E138" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F138" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
+        <v>532</v>
+      </c>
+      <c r="H138" t="s">
+        <v>537</v>
+      </c>
+      <c r="I138" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B139" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C139">
         <v>2024</v>
       </c>
       <c r="D139" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E139" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F139" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
+        <v>533</v>
+      </c>
+      <c r="H139" t="s">
+        <v>537</v>
+      </c>
+      <c r="I139" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B140" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C140">
         <v>2024</v>
       </c>
       <c r="D140" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E140" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F140" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
+        <v>534</v>
+      </c>
+      <c r="H140" t="s">
+        <v>537</v>
+      </c>
+      <c r="I140" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B141" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C141">
         <v>2024</v>
       </c>
       <c r="D141" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E141" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F141" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
+        <v>535</v>
+      </c>
+      <c r="H141" t="s">
+        <v>537</v>
+      </c>
+      <c r="I141" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B142" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C142">
         <v>2024</v>
       </c>
       <c r="D142" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E142" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F142" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
+      </c>
+      <c r="H142" t="s">
+        <v>537</v>
+      </c>
+      <c r="I142" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -5485,13 +6339,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5513,97 +6367,127 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C2">
         <v>2023</v>
       </c>
       <c r="D2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E2" t="s">
+        <v>544</v>
+      </c>
+      <c r="F2" t="s">
+        <v>395</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="H2" t="s">
+        <v>537</v>
+      </c>
+      <c r="I2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
         <v>539</v>
       </c>
-      <c r="E2" t="s">
-        <v>541</v>
-      </c>
-      <c r="F2" t="s">
-        <v>393</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>536</v>
-      </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C3">
         <v>2023</v>
       </c>
       <c r="D3" t="s">
+        <v>543</v>
+      </c>
+      <c r="E3" t="s">
+        <v>545</v>
+      </c>
+      <c r="F3" t="s">
+        <v>395</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="H3" t="s">
+        <v>537</v>
+      </c>
+      <c r="I3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
         <v>540</v>
       </c>
-      <c r="E3" t="s">
-        <v>542</v>
-      </c>
-      <c r="F3" t="s">
-        <v>393</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>537</v>
-      </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C4">
         <v>2023</v>
       </c>
       <c r="D4" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="E4" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="F4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>550</v>
+      </c>
+      <c r="H4" t="s">
+        <v>537</v>
+      </c>
+      <c r="I4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C5">
         <v>2023</v>
       </c>
       <c r="D5" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="E5" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="F5" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>548</v>
+        <v>551</v>
+      </c>
+      <c r="H5" t="s">
+        <v>537</v>
+      </c>
+      <c r="I5" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -5627,15 +6511,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -5643,7 +6527,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B3">
         <v>61</v>
@@ -5651,7 +6535,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B4">
         <v>24</v>
@@ -5659,7 +6543,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -5667,7 +6551,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B6">
         <v>37</v>
@@ -5675,7 +6559,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B7">
         <v>51</v>
@@ -5699,10 +6583,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5713,7 +6597,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5724,7 +6608,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5735,7 +6619,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5746,7 +6630,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5757,7 +6641,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5768,7 +6652,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5779,7 +6663,7 @@
         <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5790,7 +6674,7 @@
         <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5801,7 +6685,7 @@
         <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5812,7 +6696,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>
@@ -5821,1699 +6705,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D120"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>2014</v>
-      </c>
-      <c r="B2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2015</v>
-      </c>
-      <c r="B3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>2015</v>
-      </c>
-      <c r="B4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>2015</v>
-      </c>
-      <c r="B5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>2017</v>
-      </c>
-      <c r="B6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>2017</v>
-      </c>
-      <c r="B7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>2018</v>
-      </c>
-      <c r="B8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>2018</v>
-      </c>
-      <c r="B9" t="s">
-        <v>168</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>2019</v>
-      </c>
-      <c r="B10" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>2019</v>
-      </c>
-      <c r="B11" t="s">
-        <v>176</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>2019</v>
-      </c>
-      <c r="B12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>2020</v>
-      </c>
-      <c r="B13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>2020</v>
-      </c>
-      <c r="B14" t="s">
-        <v>179</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>2020</v>
-      </c>
-      <c r="B15" t="s">
-        <v>181</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>2020</v>
-      </c>
-      <c r="B16" t="s">
-        <v>177</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>2020</v>
-      </c>
-      <c r="B17" t="s">
-        <v>178</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>2020</v>
-      </c>
-      <c r="B18" t="s">
-        <v>184</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>2020</v>
-      </c>
-      <c r="B19" t="s">
-        <v>182</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>2021</v>
-      </c>
-      <c r="B20" t="s">
-        <v>191</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>2021</v>
-      </c>
-      <c r="B21" t="s">
-        <v>197</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>2021</v>
-      </c>
-      <c r="B22" t="s">
-        <v>172</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>2021</v>
-      </c>
-      <c r="B23" t="s">
-        <v>204</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>2021</v>
-      </c>
-      <c r="B24" t="s">
-        <v>188</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>2021</v>
-      </c>
-      <c r="B25" t="s">
-        <v>194</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>2021</v>
-      </c>
-      <c r="B26" t="s">
-        <v>181</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
-        <v>2021</v>
-      </c>
-      <c r="B27" t="s">
-        <v>200</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
-        <v>2021</v>
-      </c>
-      <c r="B28" t="s">
-        <v>193</v>
-      </c>
-      <c r="C28">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
-        <v>2021</v>
-      </c>
-      <c r="B29" t="s">
-        <v>209</v>
-      </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
-        <v>2021</v>
-      </c>
-      <c r="B30" t="s">
-        <v>243</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
-        <v>2021</v>
-      </c>
-      <c r="B31" t="s">
-        <v>192</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32">
-        <v>2021</v>
-      </c>
-      <c r="B32" t="s">
-        <v>183</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
-        <v>2021</v>
-      </c>
-      <c r="B33" t="s">
-        <v>180</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34">
-        <v>2021</v>
-      </c>
-      <c r="B34" t="s">
-        <v>196</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35">
-        <v>2021</v>
-      </c>
-      <c r="B35" t="s">
-        <v>187</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36">
-        <v>2021</v>
-      </c>
-      <c r="B36" t="s">
-        <v>190</v>
-      </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-      <c r="D36" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37">
-        <v>2021</v>
-      </c>
-      <c r="B37" t="s">
-        <v>186</v>
-      </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="D37" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38">
-        <v>2021</v>
-      </c>
-      <c r="B38" t="s">
-        <v>198</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39">
-        <v>2021</v>
-      </c>
-      <c r="B39" t="s">
-        <v>169</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="D39" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40">
-        <v>2021</v>
-      </c>
-      <c r="B40" t="s">
-        <v>195</v>
-      </c>
-      <c r="C40">
-        <v>3</v>
-      </c>
-      <c r="D40" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41">
-        <v>2021</v>
-      </c>
-      <c r="B41" t="s">
-        <v>199</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42">
-        <v>2021</v>
-      </c>
-      <c r="B42" t="s">
-        <v>189</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43">
-        <v>2021</v>
-      </c>
-      <c r="B43" t="s">
-        <v>182</v>
-      </c>
-      <c r="C43">
-        <v>5</v>
-      </c>
-      <c r="D43" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44">
-        <v>2021</v>
-      </c>
-      <c r="B44" t="s">
-        <v>201</v>
-      </c>
-      <c r="C44">
-        <v>2</v>
-      </c>
-      <c r="D44" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45">
-        <v>2022</v>
-      </c>
-      <c r="B45" t="s">
-        <v>213</v>
-      </c>
-      <c r="C45">
-        <v>2</v>
-      </c>
-      <c r="D45" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46">
-        <v>2022</v>
-      </c>
-      <c r="B46" t="s">
-        <v>216</v>
-      </c>
-      <c r="C46">
-        <v>2</v>
-      </c>
-      <c r="D46" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47">
-        <v>2022</v>
-      </c>
-      <c r="B47" t="s">
-        <v>191</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48">
-        <v>2022</v>
-      </c>
-      <c r="B48" t="s">
-        <v>197</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49">
-        <v>2022</v>
-      </c>
-      <c r="B49" t="s">
-        <v>172</v>
-      </c>
-      <c r="C49">
-        <v>4</v>
-      </c>
-      <c r="D49" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50">
-        <v>2022</v>
-      </c>
-      <c r="B50" t="s">
-        <v>202</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51">
-        <v>2022</v>
-      </c>
-      <c r="B51" t="s">
-        <v>221</v>
-      </c>
-      <c r="C51">
-        <v>4</v>
-      </c>
-      <c r="D51" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52">
-        <v>2022</v>
-      </c>
-      <c r="B52" t="s">
-        <v>214</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53">
-        <v>2022</v>
-      </c>
-      <c r="B53" t="s">
-        <v>210</v>
-      </c>
-      <c r="C53">
-        <v>2</v>
-      </c>
-      <c r="D53" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54">
-        <v>2022</v>
-      </c>
-      <c r="B54" t="s">
-        <v>212</v>
-      </c>
-      <c r="C54">
-        <v>2</v>
-      </c>
-      <c r="D54" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55">
-        <v>2022</v>
-      </c>
-      <c r="B55" t="s">
-        <v>219</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56">
-        <v>2022</v>
-      </c>
-      <c r="B56" t="s">
-        <v>208</v>
-      </c>
-      <c r="C56">
-        <v>3</v>
-      </c>
-      <c r="D56" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57">
-        <v>2022</v>
-      </c>
-      <c r="B57" t="s">
-        <v>225</v>
-      </c>
-      <c r="C57">
-        <v>4</v>
-      </c>
-      <c r="D57" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58">
-        <v>2022</v>
-      </c>
-      <c r="B58" t="s">
-        <v>193</v>
-      </c>
-      <c r="C58">
-        <v>4</v>
-      </c>
-      <c r="D58" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59">
-        <v>2022</v>
-      </c>
-      <c r="B59" t="s">
-        <v>215</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60">
-        <v>2022</v>
-      </c>
-      <c r="B60" t="s">
-        <v>192</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61">
-        <v>2022</v>
-      </c>
-      <c r="B61" t="s">
-        <v>211</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62">
-        <v>2022</v>
-      </c>
-      <c r="B62" t="s">
-        <v>222</v>
-      </c>
-      <c r="C62">
-        <v>2</v>
-      </c>
-      <c r="D62" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63">
-        <v>2022</v>
-      </c>
-      <c r="B63" t="s">
-        <v>203</v>
-      </c>
-      <c r="C63">
-        <v>2</v>
-      </c>
-      <c r="D63" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64">
-        <v>2022</v>
-      </c>
-      <c r="B64" t="s">
-        <v>206</v>
-      </c>
-      <c r="C64">
-        <v>2</v>
-      </c>
-      <c r="D64" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65">
-        <v>2022</v>
-      </c>
-      <c r="B65" t="s">
-        <v>205</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66">
-        <v>2022</v>
-      </c>
-      <c r="B66" t="s">
-        <v>190</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67">
-        <v>2022</v>
-      </c>
-      <c r="B67" t="s">
-        <v>218</v>
-      </c>
-      <c r="C67">
-        <v>2</v>
-      </c>
-      <c r="D67" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68">
-        <v>2022</v>
-      </c>
-      <c r="B68" t="s">
-        <v>184</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69">
-        <v>2022</v>
-      </c>
-      <c r="B69" t="s">
-        <v>207</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70">
-        <v>2022</v>
-      </c>
-      <c r="B70" t="s">
-        <v>169</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71">
-        <v>2022</v>
-      </c>
-      <c r="B71" t="s">
-        <v>237</v>
-      </c>
-      <c r="C71">
-        <v>3</v>
-      </c>
-      <c r="D71" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72">
-        <v>2022</v>
-      </c>
-      <c r="B72" t="s">
-        <v>217</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73">
-        <v>2022</v>
-      </c>
-      <c r="B73" t="s">
-        <v>195</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74">
-        <v>2022</v>
-      </c>
-      <c r="B74" t="s">
-        <v>182</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75">
-        <v>2023</v>
-      </c>
-      <c r="B75" t="s">
-        <v>216</v>
-      </c>
-      <c r="C75">
-        <v>2</v>
-      </c>
-      <c r="D75" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76">
-        <v>2023</v>
-      </c>
-      <c r="B76" t="s">
-        <v>191</v>
-      </c>
-      <c r="C76">
-        <v>4</v>
-      </c>
-      <c r="D76" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77">
-        <v>2023</v>
-      </c>
-      <c r="B77" t="s">
-        <v>230</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78">
-        <v>2023</v>
-      </c>
-      <c r="B78" t="s">
-        <v>172</v>
-      </c>
-      <c r="C78">
-        <v>2</v>
-      </c>
-      <c r="D78" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79">
-        <v>2023</v>
-      </c>
-      <c r="B79" t="s">
-        <v>233</v>
-      </c>
-      <c r="C79">
-        <v>3</v>
-      </c>
-      <c r="D79" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80">
-        <v>2023</v>
-      </c>
-      <c r="B80" t="s">
-        <v>224</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81">
-        <v>2023</v>
-      </c>
-      <c r="B81" t="s">
-        <v>229</v>
-      </c>
-      <c r="C81">
-        <v>2</v>
-      </c>
-      <c r="D81" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82">
-        <v>2023</v>
-      </c>
-      <c r="B82" t="s">
-        <v>204</v>
-      </c>
-      <c r="C82">
-        <v>2</v>
-      </c>
-      <c r="D82" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83">
-        <v>2023</v>
-      </c>
-      <c r="B83" t="s">
-        <v>226</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84">
-        <v>2023</v>
-      </c>
-      <c r="B84" t="s">
-        <v>234</v>
-      </c>
-      <c r="C84">
-        <v>3</v>
-      </c>
-      <c r="D84" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85">
-        <v>2023</v>
-      </c>
-      <c r="B85" t="s">
-        <v>238</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86">
-        <v>2023</v>
-      </c>
-      <c r="B86" t="s">
-        <v>228</v>
-      </c>
-      <c r="C86">
-        <v>2</v>
-      </c>
-      <c r="D86" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87">
-        <v>2023</v>
-      </c>
-      <c r="B87" t="s">
-        <v>239</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88">
-        <v>2023</v>
-      </c>
-      <c r="B88" t="s">
-        <v>177</v>
-      </c>
-      <c r="C88">
-        <v>2</v>
-      </c>
-      <c r="D88" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89">
-        <v>2023</v>
-      </c>
-      <c r="B89" t="s">
-        <v>232</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90">
-        <v>2023</v>
-      </c>
-      <c r="B90" t="s">
-        <v>200</v>
-      </c>
-      <c r="C90">
-        <v>2</v>
-      </c>
-      <c r="D90" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91">
-        <v>2023</v>
-      </c>
-      <c r="B91" t="s">
-        <v>227</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92">
-        <v>2023</v>
-      </c>
-      <c r="B92" t="s">
-        <v>205</v>
-      </c>
-      <c r="C92">
-        <v>2</v>
-      </c>
-      <c r="D92" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93">
-        <v>2023</v>
-      </c>
-      <c r="B93" t="s">
-        <v>236</v>
-      </c>
-      <c r="C93">
-        <v>2</v>
-      </c>
-      <c r="D93" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94">
-        <v>2023</v>
-      </c>
-      <c r="B94" t="s">
-        <v>235</v>
-      </c>
-      <c r="C94">
-        <v>2</v>
-      </c>
-      <c r="D94" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95">
-        <v>2023</v>
-      </c>
-      <c r="B95" t="s">
-        <v>237</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-      <c r="D95" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96">
-        <v>2023</v>
-      </c>
-      <c r="B96" t="s">
-        <v>168</v>
-      </c>
-      <c r="C96">
-        <v>4</v>
-      </c>
-      <c r="D96" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97">
-        <v>2023</v>
-      </c>
-      <c r="B97" t="s">
-        <v>220</v>
-      </c>
-      <c r="C97">
-        <v>2</v>
-      </c>
-      <c r="D97" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98">
-        <v>2023</v>
-      </c>
-      <c r="B98" t="s">
-        <v>231</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="D98" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99">
-        <v>2023</v>
-      </c>
-      <c r="B99" t="s">
-        <v>182</v>
-      </c>
-      <c r="C99">
-        <v>10</v>
-      </c>
-      <c r="D99" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100">
-        <v>2023</v>
-      </c>
-      <c r="B100" t="s">
-        <v>223</v>
-      </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-      <c r="D100" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101">
-        <v>2023</v>
-      </c>
-      <c r="B101" t="s">
-        <v>247</v>
-      </c>
-      <c r="C101">
-        <v>2</v>
-      </c>
-      <c r="D101" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102">
-        <v>2024</v>
-      </c>
-      <c r="B102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-      <c r="D102" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103">
-        <v>2024</v>
-      </c>
-      <c r="B103" t="s">
-        <v>191</v>
-      </c>
-      <c r="C103">
-        <v>3</v>
-      </c>
-      <c r="D103" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104">
-        <v>2024</v>
-      </c>
-      <c r="B104" t="s">
-        <v>172</v>
-      </c>
-      <c r="C104">
-        <v>3</v>
-      </c>
-      <c r="D104" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105">
-        <v>2024</v>
-      </c>
-      <c r="B105" t="s">
-        <v>250</v>
-      </c>
-      <c r="C105">
-        <v>1</v>
-      </c>
-      <c r="D105" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106">
-        <v>2024</v>
-      </c>
-      <c r="B106" t="s">
-        <v>240</v>
-      </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-      <c r="D106" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107">
-        <v>2024</v>
-      </c>
-      <c r="B107" t="s">
-        <v>181</v>
-      </c>
-      <c r="C107">
-        <v>2</v>
-      </c>
-      <c r="D107" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108">
-        <v>2024</v>
-      </c>
-      <c r="B108" t="s">
-        <v>177</v>
-      </c>
-      <c r="C108">
-        <v>2</v>
-      </c>
-      <c r="D108" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109">
-        <v>2024</v>
-      </c>
-      <c r="B109" t="s">
-        <v>242</v>
-      </c>
-      <c r="C109">
-        <v>2</v>
-      </c>
-      <c r="D109" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110">
-        <v>2024</v>
-      </c>
-      <c r="B110" t="s">
-        <v>246</v>
-      </c>
-      <c r="C110">
-        <v>2</v>
-      </c>
-      <c r="D110" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111">
-        <v>2024</v>
-      </c>
-      <c r="B111" t="s">
-        <v>219</v>
-      </c>
-      <c r="C111">
-        <v>1</v>
-      </c>
-      <c r="D111" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112">
-        <v>2024</v>
-      </c>
-      <c r="B112" t="s">
-        <v>225</v>
-      </c>
-      <c r="C112">
-        <v>1</v>
-      </c>
-      <c r="D112" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113">
-        <v>2024</v>
-      </c>
-      <c r="B113" t="s">
-        <v>244</v>
-      </c>
-      <c r="C113">
-        <v>1</v>
-      </c>
-      <c r="D113" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114">
-        <v>2024</v>
-      </c>
-      <c r="B114" t="s">
-        <v>248</v>
-      </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-      <c r="D114" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115">
-        <v>2024</v>
-      </c>
-      <c r="B115" t="s">
-        <v>196</v>
-      </c>
-      <c r="C115">
-        <v>1</v>
-      </c>
-      <c r="D115" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116">
-        <v>2024</v>
-      </c>
-      <c r="B116" t="s">
-        <v>241</v>
-      </c>
-      <c r="C116">
-        <v>1</v>
-      </c>
-      <c r="D116" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117">
-        <v>2024</v>
-      </c>
-      <c r="B117" t="s">
-        <v>190</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118">
-        <v>2024</v>
-      </c>
-      <c r="B118" t="s">
-        <v>218</v>
-      </c>
-      <c r="C118">
-        <v>4</v>
-      </c>
-      <c r="D118" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119">
-        <v>2024</v>
-      </c>
-      <c r="B119" t="s">
-        <v>245</v>
-      </c>
-      <c r="C119">
-        <v>1</v>
-      </c>
-      <c r="D119" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120">
-        <v>2024</v>
-      </c>
-      <c r="B120" t="s">
-        <v>201</v>
-      </c>
-      <c r="C120">
-        <v>2</v>
-      </c>
-      <c r="D120" t="s">
-        <v>158</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -7529,15 +6720,15 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B2">
         <v>2014</v>
@@ -7546,12 +6737,12 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B3">
         <v>2015</v>
@@ -7560,12 +6751,12 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B4">
         <v>2017</v>
@@ -7574,12 +6765,12 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B5">
         <v>2018</v>
@@ -7588,12 +6779,12 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B6">
         <v>2019</v>
@@ -7602,12 +6793,12 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B7">
         <v>2020</v>
@@ -7616,12 +6807,12 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B8">
         <v>2021</v>
@@ -7630,12 +6821,12 @@
         <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B9">
         <v>2022</v>
@@ -7644,12 +6835,12 @@
         <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B10">
         <v>2023</v>
@@ -7658,12 +6849,12 @@
         <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B11">
         <v>2024</v>
@@ -7672,12 +6863,12 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B12">
         <v>2020</v>
@@ -7686,12 +6877,12 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B13">
         <v>2021</v>
@@ -7700,12 +6891,12 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B14">
         <v>2022</v>
@@ -7714,12 +6905,12 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>556</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B15">
         <v>2024</v>
@@ -7728,7 +6919,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/results/20241115_CDL_UMCU_Publications.xlsx
+++ b/results/20241115_CDL_UMCU_Publications.xlsx
@@ -18,12 +18,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="799">
   <si>
     <t>PubMed ID</t>
   </si>
   <si>
-    <t>Author(s)</t>
+    <t>Author</t>
   </si>
   <si>
     <t>Year</t>
@@ -32,21 +32,24 @@
     <t>Journal</t>
   </si>
   <si>
+    <t>JID</t>
+  </si>
+  <si>
     <t>Title</t>
   </si>
   <si>
+    <t>DOI Link</t>
+  </si>
+  <si>
+    <t>Citation</t>
+  </si>
+  <si>
     <t>Publication Type</t>
   </si>
   <si>
-    <t>DOI Link</t>
-  </si>
-  <si>
     <t>Access Type</t>
   </si>
   <si>
-    <t>Main Author</t>
-  </si>
-  <si>
     <t>25282103</t>
   </si>
   <si>
@@ -530,253 +533,502 @@
     <t>Haitjema S, Mokry M, Pasterkamp G, van der Laan SW</t>
   </si>
   <si>
-    <t>Nature genetics</t>
+    <t>Nat Genet</t>
   </si>
   <si>
     <t>Nature</t>
   </si>
   <si>
-    <t>European heart journal</t>
-  </si>
-  <si>
-    <t>PLoS genetics</t>
+    <t>Eur Heart J</t>
+  </si>
+  <si>
+    <t>PLoS Genet</t>
   </si>
   <si>
     <t>Atherosclerosis</t>
   </si>
   <si>
-    <t>Nature communications</t>
-  </si>
-  <si>
-    <t>Journal of extracellular vesicles</t>
-  </si>
-  <si>
-    <t>Circulation. Genomic and precision medicine</t>
-  </si>
-  <si>
-    <t>JAMA network open</t>
-  </si>
-  <si>
-    <t>Circulation research</t>
-  </si>
-  <si>
-    <t>European journal of human genetics : EJHG</t>
+    <t>Nat Commun</t>
+  </si>
+  <si>
+    <t>J Extracell Vesicles</t>
+  </si>
+  <si>
+    <t>Circ Genom Precis Med</t>
+  </si>
+  <si>
+    <t>JAMA Netw Open</t>
+  </si>
+  <si>
+    <t>Circ Res</t>
+  </si>
+  <si>
+    <t>Eur J Hum Genet</t>
   </si>
   <si>
     <t>Cells</t>
   </si>
   <si>
-    <t>Heart failure reviews</t>
+    <t>Heart Fail Rev</t>
   </si>
   <si>
     <t>Circulation</t>
   </si>
   <si>
-    <t>Scientific reports</t>
+    <t>Sci Rep</t>
   </si>
   <si>
     <t>Haematologica</t>
   </si>
   <si>
-    <t>Journal of the American College of Cardiology</t>
-  </si>
-  <si>
-    <t>BMJ open</t>
-  </si>
-  <si>
-    <t>Journal of general internal medicine</t>
-  </si>
-  <si>
-    <t>International journal of cardiology</t>
+    <t>J Am Coll Cardiol</t>
+  </si>
+  <si>
+    <t>BMJ Open</t>
+  </si>
+  <si>
+    <t>J Gen Intern Med</t>
+  </si>
+  <si>
+    <t>Int J Cardiol</t>
   </si>
   <si>
     <t>Blood</t>
   </si>
   <si>
-    <t>Science translational medicine</t>
-  </si>
-  <si>
-    <t>Journal of clinical medicine</t>
-  </si>
-  <si>
-    <t>Arteriosclerosis, thrombosis, and vascular biology</t>
-  </si>
-  <si>
-    <t>Frontiers in physiology</t>
-  </si>
-  <si>
-    <t>Frontiers in cardiovascular medicine</t>
-  </si>
-  <si>
-    <t>British journal of haematology</t>
-  </si>
-  <si>
-    <t>PloS one</t>
-  </si>
-  <si>
-    <t>HemaSphere</t>
-  </si>
-  <si>
-    <t>Arthritis research &amp; therapy</t>
-  </si>
-  <si>
-    <t>Journal of healthcare engineering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radiotherapy and oncology : journal of the European Society for Therapeutic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">European journal of vascular and endovascular surgery : the official journal of </t>
-  </si>
-  <si>
-    <t>Vascular pharmacology</t>
-  </si>
-  <si>
-    <t>BJGP open</t>
-  </si>
-  <si>
-    <t>International journal of laboratory hematology</t>
-  </si>
-  <si>
-    <t>BMC nephrology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Journal of cerebral blood flow and metabolism : official journal of the </t>
-  </si>
-  <si>
-    <t>JMIR formative research</t>
-  </si>
-  <si>
-    <t>Journal of thrombosis and haemostasis : JTH</t>
-  </si>
-  <si>
-    <t>European heart journal open</t>
-  </si>
-  <si>
-    <t>Frontiers in medicine</t>
+    <t>Sci Transl Med</t>
+  </si>
+  <si>
+    <t>J Clin Med</t>
+  </si>
+  <si>
+    <t>Arterioscler Thromb Vasc Biol</t>
+  </si>
+  <si>
+    <t>Front Physiol</t>
+  </si>
+  <si>
+    <t>Front Cardiovasc Med</t>
+  </si>
+  <si>
+    <t>Br J Haematol</t>
+  </si>
+  <si>
+    <t>PLoS One</t>
+  </si>
+  <si>
+    <t>Hemasphere</t>
+  </si>
+  <si>
+    <t>Arthritis Res Ther</t>
+  </si>
+  <si>
+    <t>J Healthc Eng</t>
+  </si>
+  <si>
+    <t>Radiother Oncol</t>
+  </si>
+  <si>
+    <t>Eur J Vasc Endovasc Surg</t>
+  </si>
+  <si>
+    <t>Vascul Pharmacol</t>
+  </si>
+  <si>
+    <t>BJGP Open</t>
+  </si>
+  <si>
+    <t>Int J Lab Hematol</t>
+  </si>
+  <si>
+    <t>BMC Nephrol</t>
+  </si>
+  <si>
+    <t>J Cereb Blood Flow Metab</t>
+  </si>
+  <si>
+    <t>JMIR Form Res</t>
+  </si>
+  <si>
+    <t>J Thromb Haemost</t>
+  </si>
+  <si>
+    <t>Eur Heart J Open</t>
+  </si>
+  <si>
+    <t>Front Med (Lausanne)</t>
   </si>
   <si>
     <t>Biomedicines</t>
   </si>
   <si>
-    <t>Genes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clinical microbiology and infection : the official publication of the European </t>
-  </si>
-  <si>
-    <t>American journal of hematology</t>
-  </si>
-  <si>
-    <t>Bioinformatics (Oxford, England)</t>
-  </si>
-  <si>
-    <t>Frontiers in digital health</t>
-  </si>
-  <si>
-    <t>American journal of human genetics</t>
-  </si>
-  <si>
-    <t>Ophthalmology science</t>
-  </si>
-  <si>
-    <t>Journal of medical Internet research</t>
+    <t>Genes (Basel)</t>
+  </si>
+  <si>
+    <t>Clin Microbiol Infect</t>
+  </si>
+  <si>
+    <t>Am J Hematol</t>
+  </si>
+  <si>
+    <t>Bioinformatics</t>
+  </si>
+  <si>
+    <t>Front Digit Health</t>
+  </si>
+  <si>
+    <t>Am J Hum Genet</t>
+  </si>
+  <si>
+    <t>Ophthalmol Sci</t>
+  </si>
+  <si>
+    <t>J Med Internet Res</t>
   </si>
   <si>
     <t>EJHaem</t>
   </si>
   <si>
-    <t>Pediatric research</t>
-  </si>
-  <si>
-    <t>BMC emergency medicine</t>
-  </si>
-  <si>
-    <t>Genome biology</t>
-  </si>
-  <si>
-    <t>Veterinary and comparative oncology</t>
-  </si>
-  <si>
-    <t>BMC bioinformatics</t>
-  </si>
-  <si>
-    <t>European heart journal. Digital health</t>
-  </si>
-  <si>
-    <t>BioData mining</t>
-  </si>
-  <si>
-    <t>JCI insight</t>
-  </si>
-  <si>
-    <t>Cancer medicine</t>
-  </si>
-  <si>
-    <t>BMC medical research methodology</t>
-  </si>
-  <si>
-    <t>Arthritis &amp; rheumatology (Hoboken, N.J.)</t>
-  </si>
-  <si>
-    <t>Science advances</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clinical and applied thrombosis/hemostasis : official journal of the </t>
-  </si>
-  <si>
-    <t>Atherosclerosis plus</t>
-  </si>
-  <si>
-    <t>Biology of sex differences</t>
-  </si>
-  <si>
-    <t>Journal of thrombosis and thrombolysis</t>
-  </si>
-  <si>
-    <t>Journal of the American Heart Association</t>
-  </si>
-  <si>
-    <t>Nature cardiovascular research</t>
-  </si>
-  <si>
-    <t>Blood advances</t>
-  </si>
-  <si>
-    <t>Cell reports</t>
-  </si>
-  <si>
-    <t>Cell genomics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Journal of bone and mineral research : the official journal of the American </t>
-  </si>
-  <si>
-    <t>Current atherosclerosis reports</t>
-  </si>
-  <si>
-    <t>Frontiers in ophthalmology</t>
-  </si>
-  <si>
-    <t>European journal of immunology</t>
+    <t>Pediatr Res</t>
+  </si>
+  <si>
+    <t>BMC Emerg Med</t>
+  </si>
+  <si>
+    <t>Genome Biol</t>
+  </si>
+  <si>
+    <t>Vet Comp Oncol</t>
+  </si>
+  <si>
+    <t>BMC Bioinformatics</t>
+  </si>
+  <si>
+    <t>Eur Heart J Digit Health</t>
+  </si>
+  <si>
+    <t>BioData Min</t>
+  </si>
+  <si>
+    <t>JCI Insight</t>
+  </si>
+  <si>
+    <t>Cancer Med</t>
+  </si>
+  <si>
+    <t>BMC Med Res Methodol</t>
+  </si>
+  <si>
+    <t>Arthritis Rheumatol</t>
+  </si>
+  <si>
+    <t>Sci Adv</t>
+  </si>
+  <si>
+    <t>Clin Appl Thromb Hemost</t>
+  </si>
+  <si>
+    <t>Atheroscler Plus</t>
+  </si>
+  <si>
+    <t>Biol Sex Differ</t>
+  </si>
+  <si>
+    <t>J Thromb Thrombolysis</t>
+  </si>
+  <si>
+    <t>J Am Heart Assoc</t>
+  </si>
+  <si>
+    <t>Nat Cardiovasc Res</t>
+  </si>
+  <si>
+    <t>Blood Adv</t>
+  </si>
+  <si>
+    <t>Cell Rep</t>
+  </si>
+  <si>
+    <t>Cell Genom</t>
+  </si>
+  <si>
+    <t>J Bone Miner Res</t>
+  </si>
+  <si>
+    <t>Curr Atheroscler Rep</t>
+  </si>
+  <si>
+    <t>Front Ophthalmol (Lausanne)</t>
+  </si>
+  <si>
+    <t>Eur J Immunol</t>
   </si>
   <si>
     <t>Lupus</t>
   </si>
   <si>
-    <t>Digital health</t>
-  </si>
-  <si>
-    <t>Wellcome open research</t>
-  </si>
-  <si>
-    <t>Frontiers in genetics</t>
-  </si>
-  <si>
-    <t>Antimicrobial resistance and infection control</t>
-  </si>
-  <si>
-    <t>Cardiovascular research</t>
+    <t>Digit Health</t>
+  </si>
+  <si>
+    <t>Wellcome Open Res</t>
+  </si>
+  <si>
+    <t>Front Genet</t>
+  </si>
+  <si>
+    <t>Antimicrob Resist Infect Control</t>
+  </si>
+  <si>
+    <t>Cardiovasc Res</t>
+  </si>
+  <si>
+    <t>9216904</t>
+  </si>
+  <si>
+    <t>0410462</t>
+  </si>
+  <si>
+    <t>8006263</t>
+  </si>
+  <si>
+    <t>101239074</t>
+  </si>
+  <si>
+    <t>0242543</t>
+  </si>
+  <si>
+    <t>101528555</t>
+  </si>
+  <si>
+    <t>101610479</t>
+  </si>
+  <si>
+    <t>101714113</t>
+  </si>
+  <si>
+    <t>101729235</t>
+  </si>
+  <si>
+    <t>0047103</t>
+  </si>
+  <si>
+    <t>9302235</t>
+  </si>
+  <si>
+    <t>101600052</t>
+  </si>
+  <si>
+    <t>9612481</t>
+  </si>
+  <si>
+    <t>0147763</t>
+  </si>
+  <si>
+    <t>101563288</t>
+  </si>
+  <si>
+    <t>0417435</t>
+  </si>
+  <si>
+    <t>8301365</t>
+  </si>
+  <si>
+    <t>101552874</t>
+  </si>
+  <si>
+    <t>8605834</t>
+  </si>
+  <si>
+    <t>8200291</t>
+  </si>
+  <si>
+    <t>7603509</t>
+  </si>
+  <si>
+    <t>101505086</t>
+  </si>
+  <si>
+    <t>101606588</t>
+  </si>
+  <si>
+    <t>9505803</t>
+  </si>
+  <si>
+    <t>101549006</t>
+  </si>
+  <si>
+    <t>101653388</t>
+  </si>
+  <si>
+    <t>0372544</t>
+  </si>
+  <si>
+    <t>101285081</t>
+  </si>
+  <si>
+    <t>101740619</t>
+  </si>
+  <si>
+    <t>101154438</t>
+  </si>
+  <si>
+    <t>101528166</t>
+  </si>
+  <si>
+    <t>8407192</t>
+  </si>
+  <si>
+    <t>9512728</t>
+  </si>
+  <si>
+    <t>101130615</t>
+  </si>
+  <si>
+    <t>101713531</t>
+  </si>
+  <si>
+    <t>101300213</t>
+  </si>
+  <si>
+    <t>100967793</t>
+  </si>
+  <si>
+    <t>8112566</t>
+  </si>
+  <si>
+    <t>101726394</t>
+  </si>
+  <si>
+    <t>101170508</t>
+  </si>
+  <si>
+    <t>9918282081406676</t>
+  </si>
+  <si>
+    <t>101648047</t>
+  </si>
+  <si>
+    <t>101691304</t>
+  </si>
+  <si>
+    <t>101551097</t>
+  </si>
+  <si>
+    <t>9516420</t>
+  </si>
+  <si>
+    <t>7610369</t>
+  </si>
+  <si>
+    <t>9808944</t>
+  </si>
+  <si>
+    <t>101771889</t>
+  </si>
+  <si>
+    <t>0370475</t>
+  </si>
+  <si>
+    <t>9918230896206676</t>
+  </si>
+  <si>
+    <t>100959882</t>
+  </si>
+  <si>
+    <t>101761942</t>
+  </si>
+  <si>
+    <t>0100714</t>
+  </si>
+  <si>
+    <t>100968543</t>
+  </si>
+  <si>
+    <t>100960660</t>
+  </si>
+  <si>
+    <t>101185242</t>
+  </si>
+  <si>
+    <t>100965194</t>
+  </si>
+  <si>
+    <t>101778323</t>
+  </si>
+  <si>
+    <t>101319161</t>
+  </si>
+  <si>
+    <t>101676073</t>
+  </si>
+  <si>
+    <t>101595310</t>
+  </si>
+  <si>
+    <t>100968545</t>
+  </si>
+  <si>
+    <t>101623795</t>
+  </si>
+  <si>
+    <t>101653440</t>
+  </si>
+  <si>
+    <t>9508125</t>
+  </si>
+  <si>
+    <t>9918249514806676</t>
+  </si>
+  <si>
+    <t>101548963</t>
+  </si>
+  <si>
+    <t>9502018</t>
+  </si>
+  <si>
+    <t>101580524</t>
+  </si>
+  <si>
+    <t>9918284280206676</t>
+  </si>
+  <si>
+    <t>101698425</t>
+  </si>
+  <si>
+    <t>101573691</t>
+  </si>
+  <si>
+    <t>9918284260106676</t>
+  </si>
+  <si>
+    <t>8610640</t>
+  </si>
+  <si>
+    <t>100897685</t>
+  </si>
+  <si>
+    <t>9918419176106676</t>
+  </si>
+  <si>
+    <t>1273201</t>
+  </si>
+  <si>
+    <t>9204265</t>
+  </si>
+  <si>
+    <t>101690863</t>
+  </si>
+  <si>
+    <t>101696457</t>
+  </si>
+  <si>
+    <t>101560621</t>
+  </si>
+  <si>
+    <t>101585411</t>
+  </si>
+  <si>
+    <t>0077427</t>
   </si>
   <si>
     <t xml:space="preserve">Defining the role of common variation in the genomic and biological architecture </t>
@@ -1202,433 +1454,862 @@
     <t xml:space="preserve">The history of science captured in paintings: what modern scientists can learn by </t>
   </si>
   <si>
+    <t>https://doi.org/10.1038/ng.3097</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/nature14177</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/eurheartj/ehv236</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/nature14618</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pgen.1005378</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.atherosclerosis.2017.02.011</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/ncomms14977</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41588-017-0011-x</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/20013078.2018.1535750</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1161/CIRCGEN.119.002470</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1161/CIRCGEN.119.002471</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1001/jamanetworkopen.2019.7577</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41467-019-12283-6</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1161/CIRCRESAHA.119.316063</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1161/CIRCRESAHA.119.316479</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41431-020-0580-5</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/cells9020468</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s10741-020-09960-w</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1161/CIRCULATIONAHA.119.045526</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41598-020-69451-8</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3324/haematol.2020.266957</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jacc.2020.09.600</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1136/bmjopen-2020-040712</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41598-020-79978-5</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s11606-020-06453-2</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1161/CIRCULATIONAHA.120.051231</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ijcard.2020.12.093</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1182/blood.2020008635</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1126/scitranslmed.abe1433</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/jcm10050932</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1161/ATVBAHA.121.316167</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fphys.2021.641384</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.atherosclerosis.2021.03.043</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fcvm.2021.658915</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/bjh.17524</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fcvm.2021.670843</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0252978</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1097/HS9.0000000000000591</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fcvm.2021.693351</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s13075-021-02560-5</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1155/2021/6663884</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1097/HS9.0000000000000627</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.radonc.2021.08.009</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ejvs.2021.06.039</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41598-021-98059-9</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41598-021-98177-4</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.vph.2021.106924</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3399/BJGPO.2021.0134</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/ijlh.13741</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12882-021-02581-x</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.atherosclerosis.2021.11.025</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41586-021-04064-3</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0261977</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1177/0271678X221077339</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2196/29333</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1161/ATVBAHA.121.316693</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/jth.15674</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/ehjopen/oeab043</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/jcm11041017</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmed.2021.793815</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fcvm.2022.826103</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.atherosclerosis.2022.03.006</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s13075-022-02751-8</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/biomedicines10030633</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/genes13030447</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.cmi.2022.03.029</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/ajh.26554</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/ajh.26581</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jacc.2022.04.004</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41598-022-13145-w</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/bioinformatics/btac228</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fphys.2022.909870</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0270858</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fdgth.2022.942588</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ajhg.2022.06.012</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fcvm.2022.969421</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41586-022-05275-y</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.xops.2022.100175</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2196/40516</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/jha2.524</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41390-022-02413-0</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12873-022-00763-w</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12873-022-00764-9</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s13059-022-02837-1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/vco.12871</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ajhg.2022.12.003</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12859-022-05130-x</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ejvs.2023.01.035</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/ehjdh/ztac031</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/ehjdh/ztab103</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s13040-023-00321-5</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41598-023-30369-6</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41598-023-29638-1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1172/jci.insight.158089</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/cam4.5956</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12874-023-01924-6</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/art.42538</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1126/sciadv.add4984</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41598-023-36514-5</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1177/10760296231183427</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.athplu.2023.05.003</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s13293-023-00527-6</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12882-023-03265-4</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41598-023-38880-6</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1177/0271678X231195243</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1161/ATVBAHA.123.319325</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s11239-023-02881-z</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1161/CIRCRESAHA.123.322590</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41588-023-01518-4</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.atherosclerosis.2023.117279</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41598-023-43369-3</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41588-023-01510-y</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1161/ATVBAHA.123.319479</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1161/JAHA.123.030243</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s44161-022-00171-0</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1182/bloodadvances.2023011477</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.celrep.2023.113380</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1161/CIRCULATIONAHA.123.064974</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.xgen.2023.100465</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/jha2.850</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.vph.2024.107286</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/jbmr/zjae022</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1161/ATVBAHA.123.320692</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1161/CIRCRESAHA.123.323184</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s44161-022-00208-4</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s11883-024-01196-5</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2196/50853</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/hem3.109</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fopht.2021.784848</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2196/54867</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/eji.202350958</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.atherosclerosis.2024.118554</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1177/09612033241273015</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.atherosclerosis.2024.118532</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1177/20552076241271767</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/jcm13175313</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.12688/wellcomeopenres.18754.1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fgene.2024.1392061</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/ehjdh/ztae058</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s13756-024-01464-8</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/cvr/cvae209</t>
+  </si>
+  <si>
+    <t>Nat Genet. 2014 Nov;46(11):1173-86. doi: 10.1038/ng.3097. Epub 2014 Oct 5.</t>
+  </si>
+  <si>
+    <t>Nature. 2015 Feb 12;518(7538):197-206. doi: 10.1038/nature14177.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eur Heart J. 2015 Oct 14;36(39):2635-42. doi: 10.1093/eurheartj/ehv236. Epub 2015 </t>
+  </si>
+  <si>
+    <t>Nature. 2015 Jul 23;523(7561):459-462. doi: 10.1038/nature14618. Epub 2015 Jul 1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLoS Genet. 2015 Oct 1;11(10):e1005378. doi: 10.1371/journal.pgen.1005378. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atherosclerosis. 2017 Apr;259:114-119. doi: </t>
+  </si>
+  <si>
+    <t>Nat Commun. 2017 Apr 26;8:14977. doi: 10.1038/ncomms14977.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nat Genet. 2018 Jan;50(1):26-41. doi: 10.1038/s41588-017-0011-x. Epub 2017 Dec </t>
+  </si>
+  <si>
+    <t xml:space="preserve">J Extracell Vesicles. 2018 Nov 23;7(1):1535750. doi: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circ Genom Precis Med. 2019 Apr;12(4):e002470. doi: 10.1161/CIRCGEN.119.002470. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circ Genom Precis Med. 2019 Apr;12(4):e002471. doi: 10.1161/CIRCGEN.119.002471. </t>
+  </si>
+  <si>
+    <t>JAMA Netw Open. 2019 Jul 3;2(7):e197577. doi: 10.1001/jamanetworkopen.2019.7577.</t>
+  </si>
+  <si>
+    <t>Nat Commun. 2019 Oct 31;10(1):4957. doi: 10.1038/s41467-019-12283-6.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circ Res. 2020 Feb 28;126(5):571-585. doi: 10.1161/CIRCRESAHA.119.316063. Epub </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circ Res. 2020 Jan 31;126(3):361-363. doi: 10.1161/CIRCRESAHA.119.316479. Epub </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eur J Hum Genet. 2020 Jul;28(7):963-972. doi: 10.1038/s41431-020-0580-5. Epub </t>
+  </si>
+  <si>
+    <t>Cells. 2020 Feb 18;9(2):468. doi: 10.3390/cells9020468.</t>
+  </si>
+  <si>
+    <t>Heart Fail Rev. 2021 Nov;26(6):1515-1524. doi: 10.1007/s10741-020-09960-w.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circulation. 2020 Aug 11;142(6):546-555. doi: 10.1161/CIRCULATIONAHA.119.045526. </t>
+  </si>
+  <si>
+    <t>Sci Rep. 2020 Jul 23;10(1):12367. doi: 10.1038/s41598-020-69451-8.</t>
+  </si>
+  <si>
+    <t>Haematologica. 2021 Oct 1;106(10):2720-2725. doi: 10.3324/haematol.2020.266957.</t>
+  </si>
+  <si>
+    <t>J Am Coll Cardiol. 2020 Nov 17;76(20):2302-2304. doi: 10.1016/j.jacc.2020.09.600.</t>
+  </si>
+  <si>
+    <t>BMJ Open. 2020 Dec 15;10(12):e040712. doi: 10.1136/bmjopen-2020-040712.</t>
+  </si>
+  <si>
+    <t>Sci Rep. 2021 Jan 11;11(1):425. doi: 10.1038/s41598-020-79978-5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J Gen Intern Med. 2021 Jul;36(7):1914-1920. doi: 10.1007/s11606-020-06453-2. Epub </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circulation. 2021 Feb 16;143(7):713-726. doi: 10.1161/CIRCULATIONAHA.120.051231. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Int J Cardiol. 2021 May 15;331:206-207. doi: 10.1016/j.ijcard.2020.12.093. Epub </t>
+  </si>
+  <si>
+    <t>Blood. 2021 May 27;137(21):2997-3001. doi: 10.1182/blood.2020008635.</t>
+  </si>
+  <si>
+    <t>Sci Transl Med. 2021 Mar 10;13(584):eabe1433. doi: 10.1126/scitranslmed.abe1433.</t>
+  </si>
+  <si>
+    <t>J Clin Med. 2021 Mar 1;10(5):932. doi: 10.3390/jcm10050932.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arterioscler Thromb Vasc Biol. 2021 May 5;41(5):1789-1791. doi: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front Physiol. 2021 Mar 25;12:641384. doi: 10.3389/fphys.2021.641384. eCollection </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atherosclerosis. 2021 May;325:30-37. doi: 10.1016/j.atherosclerosis.2021.03.043. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front Cardiovasc Med. 2021 Apr 20;8:658915. doi: 10.3389/fcvm.2021.658915. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Br J Haematol. 2021 Jun;193(6):1185-1193. doi: 10.1111/bjh.17524. Epub 2021 May </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front Cardiovasc Med. 2021 May 3;8:670843. doi: 10.3389/fcvm.2021.670843. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLoS One. 2021 Jun 8;16(6):e0252978. doi: 10.1371/journal.pone.0252978. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hemasphere. 2021 Jun 12;5(7):e591. doi: 10.1097/HS9.0000000000000591. eCollection </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front Cardiovasc Med. 2021 Jun 14;8:693351. doi: 10.3389/fcvm.2021.693351. </t>
+  </si>
+  <si>
+    <t>Arthritis Res Ther. 2021 Jul 8;23(1):184. doi: 10.1186/s13075-021-02560-5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J Healthc Eng. 2021 Jul 9;2021:6663884. doi: 10.1155/2021/6663884. eCollection </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hemasphere. 2021 Aug 11;5(9):e627. doi: 10.1097/HS9.0000000000000627. eCollection </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radiother Oncol. 2021 Oct;163:192-198. doi: 10.1016/j.radonc.2021.08.009. Epub </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eur J Vasc Endovasc Surg. 2021 Nov;62(5):705-715. doi: </t>
+  </si>
+  <si>
+    <t>Sci Rep. 2021 Sep 21;11(1):18758. doi: 10.1038/s41598-021-98059-9.</t>
+  </si>
+  <si>
+    <t>Sci Rep. 2021 Sep 23;11(1):18946. doi: 10.1038/s41598-021-98177-4.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vascul Pharmacol. 2021 Dec;141:106924. doi: 10.1016/j.vph.2021.106924. Epub 2021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJGP Open. 2022 Mar 22;6(1):BJGPO.2021.0134. doi: 10.3399/BJGPO.2021.0134. Print </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Int J Lab Hematol. 2022 Jun;44(3):e91-e94. doi: 10.1111/ijlh.13741. Epub 2021 Oct </t>
+  </si>
+  <si>
+    <t>BMC Nephrol. 2021 Nov 8;22(1):371. doi: 10.1186/s12882-021-02581-x.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atherosclerosis. 2022 Jan;340:12-22. doi: 10.1016/j.atherosclerosis.2021.11.025. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nature. 2021 Dec;600(7890):675-679. doi: 10.1038/s41586-021-04064-3. Epub 2021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLoS One. 2021 Dec 29;16(12):e0261977. doi: 10.1371/journal.pone.0261977. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">J Cereb Blood Flow Metab. 2022 Jul;42(7):1282-1293. doi: </t>
+  </si>
+  <si>
+    <t>JMIR Form Res. 2022 Jan 28;6(1):e29333. doi: 10.2196/29333.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arterioscler Thromb Vasc Biol. 2022 Apr;42(4):e86-e95. doi: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">J Thromb Haemost. 2022 May;20(5):1213-1222. doi: 10.1111/jth.15674. Epub 2022 Mar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eur Heart J Open. 2021 Dec 21;2(1):oeab043. doi: 10.1093/ehjopen/oeab043. </t>
+  </si>
+  <si>
+    <t>J Clin Med. 2022 Feb 16;11(4):1017. doi: 10.3390/jcm11041017.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front Med (Lausanne). 2022 Feb 8;8:793815. doi: 10.3389/fmed.2021.793815. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front Cardiovasc Med. 2022 Feb 8;9:826103. doi: 10.3389/fcvm.2022.826103. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atherosclerosis. 2022 Jun;350:102-108. doi: </t>
+  </si>
+  <si>
+    <t>Arthritis Res Ther. 2022 Mar 23;24(1):74. doi: 10.1186/s13075-022-02751-8.</t>
+  </si>
+  <si>
+    <t>Biomedicines. 2022 Mar 9;10(3):633. doi: 10.3390/biomedicines10030633.</t>
+  </si>
+  <si>
+    <t>Genes (Basel). 2022 Feb 28;13(3):447. doi: 10.3390/genes13030447.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clin Microbiol Infect. 2022 Aug;28(8):1170-1171. doi: 10.1016/j.cmi.2022.03.029. </t>
+  </si>
+  <si>
+    <t>Am J Hematol. 2022 Jul;97(7):E226-E229. doi: 10.1002/ajh.26554. Epub 2022 Apr 16.</t>
+  </si>
+  <si>
+    <t>Am J Hematol. 2022 Jul;97(7):924-932. doi: 10.1002/ajh.26581. Epub 2022 May 10.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J Am Coll Cardiol. 2022 Jun 7;79(22):2200-2202. doi: 10.1016/j.jacc.2022.04.004. </t>
+  </si>
+  <si>
+    <t>Sci Rep. 2022 May 30;12(1):9013. doi: 10.1038/s41598-022-13145-w.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bioinformatics. 2022 Jun 24;38(Suppl 1):i212-i219. doi: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front Physiol. 2022 Jun 23;13:909870. doi: 10.3389/fphys.2022.909870. eCollection </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLoS One. 2022 Jul 11;17(7):e0270858. doi: 10.1371/journal.pone.0270858. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front Digit Health. 2022 Jul 6;4:942588. doi: 10.3389/fdgth.2022.942588. </t>
+  </si>
+  <si>
+    <t>Am J Hum Genet. 2022 Aug 4;109(8):1366-1387. doi: 10.1016/j.ajhg.2022.06.012.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front Cardiovasc Med. 2022 Aug 8;9:969421. doi: 10.3389/fcvm.2022.969421. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nature. 2022 Oct;610(7933):704-712. doi: 10.1038/s41586-022-05275-y. Epub 2022 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ophthalmol Sci. 2022 May 31;2(3):100175. doi: 10.1016/j.xops.2022.100175. </t>
+  </si>
+  <si>
+    <t>J Med Internet Res. 2022 Nov 18;24(11):e40516. doi: 10.2196/40516.</t>
+  </si>
+  <si>
+    <t>EJHaem. 2022 Aug 30;3(4):1300-1304. doi: 10.1002/jha2.524. eCollection 2022 Nov.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pediatr Res. 2023 Jan;93(2):437-439. doi: 10.1038/s41390-022-02413-0. Epub 2022 </t>
+  </si>
+  <si>
+    <t>BMC Emerg Med. 2022 Dec 21;22(1):207. doi: 10.1186/s12873-022-00763-w.</t>
+  </si>
+  <si>
+    <t>BMC Emerg Med. 2022 Dec 23;22(1):208. doi: 10.1186/s12873-022-00764-9.</t>
+  </si>
+  <si>
+    <t>Genome Biol. 2022 Dec 27;23(1):268. doi: 10.1186/s13059-022-02837-1.</t>
+  </si>
+  <si>
+    <t>Vet Comp Oncol. 2023 Mar;21(1):100-110. doi: 10.1111/vco.12871. Epub 2023 Jan 16.</t>
+  </si>
+  <si>
+    <t>Am J Hum Genet. 2023 Jan 5;110(1):146-160. doi: 10.1016/j.ajhg.2022.12.003.</t>
+  </si>
+  <si>
+    <t>BMC Bioinformatics. 2023 Jan 9;24(1):10. doi: 10.1186/s12859-022-05130-x.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eur J Vasc Endovasc Surg. 2023 May;65(5):700-709. doi: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eur Heart J Digit Health. 2022 May 20;3(3):437-444. doi: 10.1093/ehjdh/ztac031. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eur Heart J Digit Health. 2021 Dec 7;3(1):11-19. doi: 10.1093/ehjdh/ztab103. </t>
+  </si>
+  <si>
+    <t>BioData Min. 2023 Feb 2;16(1):3. doi: 10.1186/s13040-023-00321-5.</t>
+  </si>
+  <si>
+    <t>Sci Rep. 2023 Mar 2;13(1):3579. doi: 10.1038/s41598-023-30369-6.</t>
+  </si>
+  <si>
+    <t>Sci Rep. 2023 Mar 15;13(1):4321. doi: 10.1038/s41598-023-29638-1.</t>
+  </si>
+  <si>
+    <t>JCI Insight. 2023 May 8;8(9):e158089. doi: 10.1172/jci.insight.158089.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancer Med. 2023 Jun;12(11):12462-12469. doi: 10.1002/cam4.5956. Epub 2023 Apr </t>
+  </si>
+  <si>
+    <t>BMC Med Res Methodol. 2023 Apr 22;23(1):98. doi: 10.1186/s12874-023-01924-6.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arthritis Rheumatol. 2023 Oct;75(10):1781-1792. doi: 10.1002/art.42538. Epub 2023 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sci Adv. 2023 Apr 28;9(17):eadd4984. doi: 10.1126/sciadv.add4984. Epub 2023 Apr </t>
+  </si>
+  <si>
+    <t>Sci Rep. 2023 Jun 7;13(1):9223. doi: 10.1038/s41598-023-36514-5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clin Appl Thromb Hemost. 2023 Jan-Dec;29:10760296231183427. doi: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atheroscler Plus. 2023 Jun 1;52:32-40. doi: 10.1016/j.athplu.2023.05.003. </t>
+  </si>
+  <si>
+    <t>Biol Sex Differ. 2023 Jul 5;14(1):43. doi: 10.1186/s13293-023-00527-6.</t>
+  </si>
+  <si>
+    <t>BMC Nephrol. 2023 Jul 27;24(1):222. doi: 10.1186/s12882-023-03265-4.</t>
+  </si>
+  <si>
+    <t>Sci Rep. 2023 Aug 10;13(1):13028. doi: 10.1038/s41598-023-38880-6.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J Cereb Blood Flow Metab. 2023 Dec;43(12):2060-2071. doi: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arterioscler Thromb Vasc Biol. 2023 Oct;43(10):1836-1850. doi: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">J Thromb Thrombolysis. 2023 Nov;56(4):614-625. doi: 10.1007/s11239-023-02881-z. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circ Res. 2023 Sep 15;133(7):542-558. doi: 10.1161/CIRCRESAHA.123.322590. Epub </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nat Genet. 2023 Oct;55(10):1651-1664. doi: 10.1038/s41588-023-01518-4. Epub 2023 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atherosclerosis. 2023 Nov;384:117279. doi: 10.1016/j.atherosclerosis.2023.117279. </t>
+  </si>
+  <si>
+    <t>Sci Rep. 2023 Oct 10;13(1):17104. doi: 10.1038/s41598-023-43369-3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nat Genet. 2023 Nov;55(11):1831-1842. doi: 10.1038/s41588-023-01510-y. Epub 2023 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arterioscler Thromb Vasc Biol. 2023 Dec;43(12):2333-2347. doi: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">J Am Heart Assoc. 2023 Nov 7;12(21):e030243. doi: 10.1161/JAHA.123.030243. Epub </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nat Cardiovasc Res. 2022 Dec;1(12):1140-1155. doi: 10.1038/s44161-022-00171-0. </t>
+  </si>
+  <si>
+    <t>Blood Adv. 2023 Dec 26;7(24):7539-7550. doi: 10.1182/bloodadvances.2023011477.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell Rep. 2023 Nov 28;42(11):113380. doi: 10.1016/j.celrep.2023.113380. Epub 2023 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circulation. 2024 Feb 27;149(9):669-683. doi: 10.1161/CIRCULATIONAHA.123.064974. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell Genom. 2024 Jan 10;4(1):100465. doi: 10.1016/j.xgen.2023.100465. Epub 2023 </t>
+  </si>
+  <si>
+    <t>EJHaem. 2024 Feb 2;5(1):21-32. doi: 10.1002/jha2.850. eCollection 2024 Feb.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vascul Pharmacol. 2024 Mar;154:107286. doi: 10.1016/j.vph.2024.107286. Epub 2024 </t>
+  </si>
+  <si>
+    <t>J Bone Miner Res. 2024 May 2;39(4):443-452. doi: 10.1093/jbmr/zjae022.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arterioscler Thromb Vasc Biol. 2024 Jun;44(6):1419-1431. doi: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circ Res. 2024 May 24;134(11):1405-1423. doi: 10.1161/CIRCRESAHA.123.323184. Epub </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nat Cardiovasc Res. 2023;2(2):112-125. doi: 10.1038/s44161-022-00208-4. Epub 2023 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curr Atheroscler Rep. 2024 May;26(5):163-175. doi: 10.1007/s11883-024-01196-5. </t>
+  </si>
+  <si>
+    <t>J Med Internet Res. 2024 May 28;26:e50853. doi: 10.2196/50853.</t>
+  </si>
+  <si>
+    <t>Hemasphere. 2024 Jun 25;8(6):e109. doi: 10.1002/hem3.109. eCollection 2024 Jun.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front Ophthalmol (Lausanne). 2021 Nov 25;1:784848. doi: </t>
+  </si>
+  <si>
+    <t>J Med Internet Res. 2024 Jul 11;26:e54867. doi: 10.2196/54867.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eur J Immunol. 2024 Oct;54(10):e2350958. doi: 10.1002/eji.202350958. Epub 2024 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atherosclerosis. 2024 Oct;397:118554. doi: 10.1016/j.atherosclerosis.2024.118554. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lupus. 2024 Oct;33(11):1274-1276. doi: 10.1177/09612033241273015. Epub 2024 Aug </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atherosclerosis. 2024 Sep;396:118532. doi: 10.1016/j.atherosclerosis.2024.118532. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digit Health. 2024 Aug 18;10:20552076241271767. doi: 10.1177/20552076241271767. </t>
+  </si>
+  <si>
+    <t>J Clin Med. 2024 Sep 8;13(17):5313. doi: 10.3390/jcm13175313.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wellcome Open Res. 2023 Oct 20;8:483. doi: 10.12688/wellcomeopenres.18754.1. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front Genet. 2024 Sep 2;15:1392061. doi: 10.3389/fgene.2024.1392061. eCollection </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eur Heart J Digit Health. 2024 Aug 10;5(5):572-581. doi: 10.1093/ehjdh/ztae058. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antimicrob Resist Infect Control. 2024 Sep 27;13(1):113. doi: </t>
+  </si>
+  <si>
+    <t>Cardiovasc Res. 2024 Nov 5;120(13):e51-e53. doi: 10.1093/cvr/cvae209.</t>
+  </si>
+  <si>
     <t>Journal Article</t>
   </si>
   <si>
+    <t>Review</t>
+  </si>
+  <si>
     <t>Other</t>
   </si>
   <si>
-    <t>https://doi.org/10.1038/ng.3097</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1038/nature14177</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1093/eurheartj/ehv236</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1038/nature14618</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1371/journal.pgen.1005378</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.atherosclerosis.2017.02.011</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1038/ncomms14977</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1038/s41588-017-0011-x</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1080/20013078.2018.1535750</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1161/CIRCGEN.119.002470</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1161/CIRCGEN.119.002471</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1001/jamanetworkopen.2019.7577</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1038/s41467-019-12283-6</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1161/CIRCRESAHA.119.316063</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1161/CIRCRESAHA.119.316479</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1038/s41431-020-0580-5</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.3390/cells9020468</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1007/s10741-020-09960-w</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1161/CIRCULATIONAHA.119.045526</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1038/s41598-020-69451-8</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.3324/haematol.2020.266957</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.jacc.2020.09.600</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1136/bmjopen-2020-040712</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1038/s41598-020-79978-5</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1007/s11606-020-06453-2</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1161/CIRCULATIONAHA.120.051231</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.ijcard.2020.12.093</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1182/blood.2020008635</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1126/scitranslmed.abe1433</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.3390/jcm10050932</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1161/ATVBAHA.121.316167</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.3389/fphys.2021.641384</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.atherosclerosis.2021.03.043</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.3389/fcvm.2021.658915</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1111/bjh.17524</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.3389/fcvm.2021.670843</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1371/journal.pone.0252978</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1097/HS9.0000000000000591</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.3389/fcvm.2021.693351</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1186/s13075-021-02560-5</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1155/2021/6663884</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1097/HS9.0000000000000627</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.radonc.2021.08.009</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.ejvs.2021.06.039</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1038/s41598-021-98059-9</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1038/s41598-021-98177-4</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.vph.2021.106924</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.3399/BJGPO.2021.0134</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1111/ijlh.13741</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1186/s12882-021-02581-x</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.atherosclerosis.2021.11.025</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1038/s41586-021-04064-3</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1371/journal.pone.0261977</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1177/0271678X221077339</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.2196/29333</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1161/ATVBAHA.121.316693</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1111/jth.15674</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1093/ehjopen/oeab043</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.3390/jcm11041017</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.3389/fmed.2021.793815</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.3389/fcvm.2022.826103</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.atherosclerosis.2022.03.006</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1186/s13075-022-02751-8</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.3390/biomedicines10030633</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.3390/genes13030447</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.cmi.2022.03.029</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1002/ajh.26554</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1002/ajh.26581</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.jacc.2022.04.004</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1038/s41598-022-13145-w</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1093/bioinformatics/btac228</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.3389/fphys.2022.909870</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1371/journal.pone.0270858</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.3389/fdgth.2022.942588</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.ajhg.2022.06.012</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.3389/fcvm.2022.969421</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1038/s41586-022-05275-y</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.xops.2022.100175</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.2196/40516</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1002/jha2.524</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1038/s41390-022-02413-0</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1186/s12873-022-00763-w</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1186/s12873-022-00764-9</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1186/s13059-022-02837-1</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1111/vco.12871</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.ajhg.2022.12.003</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1186/s12859-022-05130-x</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.ejvs.2023.01.035</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1093/ehjdh/ztac031</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1093/ehjdh/ztab103</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1186/s13040-023-00321-5</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1038/s41598-023-30369-6</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1038/s41598-023-29638-1</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1172/jci.insight.158089</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1002/cam4.5956</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1186/s12874-023-01924-6</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1002/art.42538</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1126/sciadv.add4984</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1038/s41598-023-36514-5</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1177/10760296231183427</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.athplu.2023.05.003</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1186/s13293-023-00527-6</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1186/s12882-023-03265-4</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1038/s41598-023-38880-6</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1177/0271678X231195243</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1161/ATVBAHA.123.319325</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1007/s11239-023-02881-z</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1161/CIRCRESAHA.123.322590</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1038/s41588-023-01518-4</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.atherosclerosis.2023.117279</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1038/s41598-023-43369-3</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1038/s41588-023-01510-y</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1161/ATVBAHA.123.319479</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1161/JAHA.123.030243</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1038/s44161-022-00171-0</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1182/bloodadvances.2023011477</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.celrep.2023.113380</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1161/CIRCULATIONAHA.123.064974</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.xgen.2023.100465</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1002/jha2.850</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.vph.2024.107286</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1093/jbmr/zjae022</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1161/ATVBAHA.123.320692</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1161/CIRCRESAHA.123.323184</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1038/s44161-022-00208-4</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1007/s11883-024-01196-5</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.2196/50853</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1002/hem3.109</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.3389/fopht.2021.784848</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.2196/54867</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1002/eji.202350958</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.atherosclerosis.2024.118554</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1177/09612033241273015</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.atherosclerosis.2024.118532</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1177/20552076241271767</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.3390/jcm13175313</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.12688/wellcomeopenres.18754.1</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.3389/fgene.2024.1392061</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1093/ehjdh/ztae058</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1186/s13756-024-01464-8</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1093/cvr/cvae209</t>
+    <t>open access</t>
   </si>
   <si>
     <t>closed access</t>
@@ -1646,10 +2327,16 @@
     <t>38076909</t>
   </si>
   <si>
-    <t>bioRxiv : the preprint server for biology</t>
-  </si>
-  <si>
-    <t>medRxiv : the preprint server for health sciences</t>
+    <t>bioRxiv</t>
+  </si>
+  <si>
+    <t>medRxiv</t>
+  </si>
+  <si>
+    <t>101680187</t>
+  </si>
+  <si>
+    <t>101767986</t>
   </si>
   <si>
     <t xml:space="preserve">Female gene networks are expressed in myofibroblast-like smooth muscle cells in </t>
@@ -1673,10 +2360,43 @@
     <t>https://doi.org/10.1101/2023.07.22.23292754</t>
   </si>
   <si>
+    <t>https://doi.org/10.1101/2023.02.08.527690.</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1101/2023.12.01.23294385</t>
   </si>
   <si>
-    <t>Author</t>
+    <t>https://doi.org/10.1101/2023.03.24.23287543.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1101/2023.02.09.23285622.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1101/2023.12.01.23294385.</t>
+  </si>
+  <si>
+    <t>bioRxiv [Preprint]. 2023 Feb 9:2023.02.08.527690. doi: 10.1101/2023.02.08.527690.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medRxiv [Preprint]. 2023 Mar 28:2023.03.24.23287543. doi: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">medRxiv [Preprint]. 2023 Jul 26:2023.07.22.23292754. doi: </t>
+  </si>
+  <si>
+    <t>bioRxiv. 2023 Feb 09:2023.02.08.527690. doi:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medRxiv [Preprint]. 2023 Dec 1:2023.12.01.23294385. doi: </t>
+  </si>
+  <si>
+    <t>medRxiv. 2023 Mar 28:2023.03.24.23287543. doi:</t>
+  </si>
+  <si>
+    <t>medRxiv. 2023 Feb 14:2023.02.09.23285622. doi:</t>
+  </si>
+  <si>
+    <t>medRxiv. 2023 Dec 01:2023.12.01.23294385. doi:</t>
   </si>
   <si>
     <t>Number of Publications</t>
@@ -2065,13 +2785,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I142"/>
+  <dimension ref="A1:J142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2099,4094 +2819,4520 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C2">
         <v>2014</v>
       </c>
       <c r="D2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F2" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>396</v>
+        <v>478</v>
       </c>
       <c r="H2" t="s">
-        <v>537</v>
+        <v>619</v>
       </c>
       <c r="I2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J2" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C3">
         <v>2015</v>
       </c>
       <c r="D3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F3" t="s">
-        <v>394</v>
+        <v>338</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>397</v>
+        <v>479</v>
       </c>
       <c r="H3" t="s">
-        <v>537</v>
+        <v>620</v>
       </c>
       <c r="I3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J3" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C4">
         <v>2015</v>
       </c>
       <c r="D4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F4" t="s">
-        <v>394</v>
+        <v>339</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>398</v>
+        <v>480</v>
       </c>
       <c r="H4" t="s">
-        <v>537</v>
+        <v>621</v>
       </c>
       <c r="I4" t="s">
+        <v>761</v>
+      </c>
+      <c r="J4" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>150</v>
       </c>
       <c r="C5">
         <v>2015</v>
       </c>
       <c r="D5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F5" t="s">
-        <v>394</v>
+        <v>340</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>399</v>
+        <v>481</v>
       </c>
       <c r="H5" t="s">
-        <v>537</v>
+        <v>622</v>
       </c>
       <c r="I5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J5" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C6">
         <v>2015</v>
       </c>
       <c r="D6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E6" t="s">
         <v>257</v>
       </c>
       <c r="F6" t="s">
-        <v>394</v>
+        <v>341</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>400</v>
+        <v>482</v>
       </c>
       <c r="H6" t="s">
-        <v>537</v>
+        <v>623</v>
       </c>
       <c r="I6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J6" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C7">
         <v>2017</v>
       </c>
       <c r="D7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E7" t="s">
         <v>258</v>
       </c>
       <c r="F7" t="s">
-        <v>394</v>
+        <v>342</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>401</v>
+        <v>483</v>
       </c>
       <c r="H7" t="s">
-        <v>537</v>
+        <v>624</v>
       </c>
       <c r="I7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J7" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C8">
         <v>2017</v>
       </c>
       <c r="D8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E8" t="s">
         <v>259</v>
       </c>
       <c r="F8" t="s">
-        <v>394</v>
+        <v>343</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>402</v>
+        <v>484</v>
       </c>
       <c r="H8" t="s">
-        <v>537</v>
+        <v>625</v>
       </c>
       <c r="I8" t="s">
+        <v>760</v>
+      </c>
+      <c r="J8" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>151</v>
       </c>
       <c r="C9">
         <v>2018</v>
       </c>
       <c r="D9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E9" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F9" t="s">
-        <v>394</v>
+        <v>344</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>403</v>
+        <v>485</v>
       </c>
       <c r="H9" t="s">
-        <v>537</v>
+        <v>626</v>
       </c>
       <c r="I9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C10">
         <v>2018</v>
       </c>
       <c r="D10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F10" t="s">
-        <v>394</v>
+        <v>345</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>404</v>
+        <v>486</v>
       </c>
       <c r="H10" t="s">
-        <v>537</v>
+        <v>627</v>
       </c>
       <c r="I10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J10" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C11">
         <v>2019</v>
       </c>
       <c r="D11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F11" t="s">
-        <v>394</v>
+        <v>346</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>405</v>
+        <v>487</v>
       </c>
       <c r="H11" t="s">
-        <v>537</v>
+        <v>628</v>
       </c>
       <c r="I11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J11" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C12">
         <v>2019</v>
       </c>
       <c r="D12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F12" t="s">
-        <v>394</v>
+        <v>347</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>406</v>
+        <v>488</v>
       </c>
       <c r="H12" t="s">
-        <v>537</v>
+        <v>629</v>
       </c>
       <c r="I12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J12" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C13">
         <v>2019</v>
       </c>
       <c r="D13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F13" t="s">
-        <v>394</v>
+        <v>348</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>407</v>
+        <v>489</v>
       </c>
       <c r="H13" t="s">
-        <v>537</v>
+        <v>630</v>
       </c>
       <c r="I13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J13" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C14">
         <v>2019</v>
       </c>
       <c r="D14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E14" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F14" t="s">
-        <v>394</v>
+        <v>349</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>408</v>
+        <v>490</v>
       </c>
       <c r="H14" t="s">
-        <v>537</v>
+        <v>631</v>
       </c>
       <c r="I14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J14" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C15">
         <v>2020</v>
       </c>
       <c r="D15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E15" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F15" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>409</v>
+        <v>491</v>
       </c>
       <c r="H15" t="s">
-        <v>537</v>
+        <v>632</v>
       </c>
       <c r="I15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J15" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C16">
         <v>2020</v>
       </c>
       <c r="D16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E16" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F16" t="s">
-        <v>395</v>
+        <v>351</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>410</v>
+        <v>492</v>
       </c>
       <c r="H16" t="s">
-        <v>537</v>
+        <v>633</v>
       </c>
       <c r="I16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>762</v>
+      </c>
+      <c r="J16" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C17">
         <v>2020</v>
       </c>
       <c r="D17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E17" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F17" t="s">
-        <v>394</v>
+        <v>352</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>411</v>
+        <v>493</v>
       </c>
       <c r="H17" t="s">
-        <v>537</v>
+        <v>634</v>
       </c>
       <c r="I17" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J17" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C18">
         <v>2020</v>
       </c>
       <c r="D18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E18" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F18" t="s">
-        <v>394</v>
+        <v>353</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>412</v>
+        <v>494</v>
       </c>
       <c r="H18" t="s">
-        <v>537</v>
+        <v>635</v>
       </c>
       <c r="I18" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J18" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C19">
         <v>2021</v>
       </c>
       <c r="D19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E19" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F19" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>413</v>
+        <v>495</v>
       </c>
       <c r="H19" t="s">
-        <v>537</v>
+        <v>636</v>
       </c>
       <c r="I19" t="s">
+        <v>761</v>
+      </c>
+      <c r="J19" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>150</v>
       </c>
       <c r="C20">
         <v>2020</v>
       </c>
       <c r="D20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E20" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F20" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>414</v>
+        <v>496</v>
       </c>
       <c r="H20" t="s">
-        <v>537</v>
+        <v>637</v>
       </c>
       <c r="I20" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J20" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C21">
         <v>2020</v>
       </c>
       <c r="D21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E21" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F21" t="s">
-        <v>394</v>
+        <v>356</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>415</v>
+        <v>497</v>
       </c>
       <c r="H21" t="s">
-        <v>537</v>
+        <v>638</v>
       </c>
       <c r="I21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J21" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C22">
         <v>2021</v>
       </c>
       <c r="D22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E22" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F22" t="s">
-        <v>394</v>
+        <v>357</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>416</v>
+        <v>498</v>
       </c>
       <c r="H22" t="s">
-        <v>537</v>
+        <v>639</v>
       </c>
       <c r="I22" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J22" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C23">
         <v>2020</v>
       </c>
       <c r="D23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E23" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F23" t="s">
-        <v>395</v>
+        <v>358</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>417</v>
+        <v>499</v>
       </c>
       <c r="H23" t="s">
-        <v>537</v>
+        <v>640</v>
       </c>
       <c r="I23" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>762</v>
+      </c>
+      <c r="J23" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C24">
         <v>2020</v>
       </c>
       <c r="D24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E24" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F24" t="s">
-        <v>394</v>
+        <v>359</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>418</v>
+        <v>500</v>
       </c>
       <c r="H24" t="s">
-        <v>537</v>
+        <v>641</v>
       </c>
       <c r="I24" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J24" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C25">
         <v>2021</v>
       </c>
       <c r="D25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E25" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F25" t="s">
-        <v>394</v>
+        <v>360</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>419</v>
+        <v>501</v>
       </c>
       <c r="H25" t="s">
-        <v>537</v>
+        <v>642</v>
       </c>
       <c r="I25" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J25" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C26">
         <v>2021</v>
       </c>
       <c r="D26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E26" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F26" t="s">
-        <v>394</v>
+        <v>361</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>420</v>
+        <v>502</v>
       </c>
       <c r="H26" t="s">
-        <v>537</v>
+        <v>643</v>
       </c>
       <c r="I26" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J26" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C27">
         <v>2021</v>
       </c>
       <c r="D27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E27" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="F27" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>421</v>
+        <v>503</v>
       </c>
       <c r="H27" t="s">
-        <v>537</v>
+        <v>644</v>
       </c>
       <c r="I27" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J27" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C28">
         <v>2021</v>
       </c>
       <c r="D28" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E28" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F28" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>422</v>
+        <v>504</v>
       </c>
       <c r="H28" t="s">
-        <v>537</v>
+        <v>645</v>
       </c>
       <c r="I28" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>762</v>
+      </c>
+      <c r="J28" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C29">
         <v>2021</v>
       </c>
       <c r="D29" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E29" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F29" t="s">
-        <v>394</v>
+        <v>364</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>423</v>
+        <v>505</v>
       </c>
       <c r="H29" t="s">
-        <v>537</v>
+        <v>646</v>
       </c>
       <c r="I29" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J29" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C30">
         <v>2021</v>
       </c>
       <c r="D30" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E30" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F30" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>424</v>
+        <v>506</v>
       </c>
       <c r="H30" t="s">
-        <v>537</v>
+        <v>647</v>
       </c>
       <c r="I30" t="s">
+        <v>760</v>
+      </c>
+      <c r="J30" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" t="s">
-        <v>150</v>
       </c>
       <c r="C31">
         <v>2021</v>
       </c>
       <c r="D31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E31" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F31" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>425</v>
+        <v>507</v>
       </c>
       <c r="H31" t="s">
-        <v>537</v>
+        <v>648</v>
       </c>
       <c r="I31" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J31" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C32">
         <v>2021</v>
       </c>
       <c r="D32" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E32" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F32" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>426</v>
+        <v>508</v>
       </c>
       <c r="H32" t="s">
-        <v>537</v>
+        <v>649</v>
       </c>
       <c r="I32" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>762</v>
+      </c>
+      <c r="J32" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C33">
         <v>2021</v>
       </c>
       <c r="D33" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E33" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F33" t="s">
-        <v>394</v>
+        <v>368</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>427</v>
+        <v>509</v>
       </c>
       <c r="H33" t="s">
-        <v>537</v>
+        <v>650</v>
       </c>
       <c r="I33" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J33" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C34">
         <v>2021</v>
       </c>
       <c r="D34" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E34" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="F34" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>428</v>
+        <v>510</v>
       </c>
       <c r="H34" t="s">
-        <v>537</v>
+        <v>651</v>
       </c>
       <c r="I34" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J34" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C35">
         <v>2021</v>
       </c>
       <c r="D35" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E35" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="F35" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>429</v>
+        <v>511</v>
       </c>
       <c r="H35" t="s">
-        <v>537</v>
+        <v>652</v>
       </c>
       <c r="I35" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J35" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C36">
         <v>2021</v>
       </c>
       <c r="D36" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E36" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F36" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>430</v>
+        <v>512</v>
       </c>
       <c r="H36" t="s">
-        <v>537</v>
+        <v>653</v>
       </c>
       <c r="I36" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J36" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C37">
         <v>2021</v>
       </c>
       <c r="D37" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E37" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="F37" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>431</v>
+        <v>513</v>
       </c>
       <c r="H37" t="s">
-        <v>537</v>
+        <v>654</v>
       </c>
       <c r="I37" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J37" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C38">
         <v>2021</v>
       </c>
       <c r="D38" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E38" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F38" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>432</v>
+        <v>514</v>
       </c>
       <c r="H38" t="s">
-        <v>537</v>
+        <v>655</v>
       </c>
       <c r="I38" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J38" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C39">
         <v>2021</v>
       </c>
       <c r="D39" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E39" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="F39" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>433</v>
+        <v>515</v>
       </c>
       <c r="H39" t="s">
-        <v>537</v>
+        <v>656</v>
       </c>
       <c r="I39" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J39" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C40">
         <v>2021</v>
       </c>
       <c r="D40" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E40" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="F40" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>434</v>
+        <v>516</v>
       </c>
       <c r="H40" t="s">
-        <v>537</v>
+        <v>657</v>
       </c>
       <c r="I40" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J40" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C41">
         <v>2021</v>
       </c>
       <c r="D41" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E41" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="F41" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>435</v>
+        <v>517</v>
       </c>
       <c r="H41" t="s">
-        <v>537</v>
+        <v>658</v>
       </c>
       <c r="I41" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J41" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C42">
         <v>2021</v>
       </c>
       <c r="D42" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E42" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="F42" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>436</v>
+        <v>518</v>
       </c>
       <c r="H42" t="s">
-        <v>537</v>
+        <v>659</v>
       </c>
       <c r="I42" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J42" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C43">
         <v>2021</v>
       </c>
       <c r="D43" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E43" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F43" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>437</v>
+        <v>519</v>
       </c>
       <c r="H43" t="s">
-        <v>537</v>
+        <v>660</v>
       </c>
       <c r="I43" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J43" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C44">
         <v>2021</v>
       </c>
       <c r="D44" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E44" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F44" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>438</v>
+        <v>520</v>
       </c>
       <c r="H44" t="s">
-        <v>537</v>
+        <v>661</v>
       </c>
       <c r="I44" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J44" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C45">
         <v>2021</v>
       </c>
       <c r="D45" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E45" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="F45" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>439</v>
+        <v>521</v>
       </c>
       <c r="H45" t="s">
-        <v>537</v>
+        <v>662</v>
       </c>
       <c r="I45" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J45" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C46">
         <v>2021</v>
       </c>
       <c r="D46" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E46" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="F46" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>440</v>
+        <v>522</v>
       </c>
       <c r="H46" t="s">
-        <v>537</v>
+        <v>663</v>
       </c>
       <c r="I46" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J46" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C47">
         <v>2021</v>
       </c>
       <c r="D47" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E47" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="F47" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>441</v>
+        <v>523</v>
       </c>
       <c r="H47" t="s">
-        <v>537</v>
+        <v>664</v>
       </c>
       <c r="I47" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J47" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C48">
         <v>2021</v>
       </c>
       <c r="D48" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E48" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="F48" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>442</v>
+        <v>524</v>
       </c>
       <c r="H48" t="s">
-        <v>537</v>
+        <v>665</v>
       </c>
       <c r="I48" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>761</v>
+      </c>
+      <c r="J48" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C49">
         <v>2022</v>
       </c>
       <c r="D49" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E49" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="F49" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>443</v>
+        <v>525</v>
       </c>
       <c r="H49" t="s">
-        <v>537</v>
+        <v>666</v>
       </c>
       <c r="I49" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J49" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C50">
         <v>2022</v>
       </c>
       <c r="D50" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E50" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="F50" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>444</v>
+        <v>526</v>
       </c>
       <c r="H50" t="s">
-        <v>537</v>
+        <v>667</v>
       </c>
       <c r="I50" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>762</v>
+      </c>
+      <c r="J50" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C51">
         <v>2021</v>
       </c>
       <c r="D51" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E51" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="F51" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>445</v>
+        <v>527</v>
       </c>
       <c r="H51" t="s">
-        <v>537</v>
+        <v>668</v>
       </c>
       <c r="I51" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J51" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C52">
         <v>2022</v>
       </c>
       <c r="D52" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E52" t="s">
-        <v>303</v>
+        <v>258</v>
       </c>
       <c r="F52" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>446</v>
+        <v>528</v>
       </c>
       <c r="H52" t="s">
-        <v>537</v>
+        <v>669</v>
       </c>
       <c r="I52" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J52" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C53">
         <v>2021</v>
       </c>
       <c r="D53" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E53" t="s">
-        <v>304</v>
+        <v>255</v>
       </c>
       <c r="F53" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>447</v>
+        <v>529</v>
       </c>
       <c r="H53" t="s">
-        <v>537</v>
+        <v>670</v>
       </c>
       <c r="I53" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J53" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C54">
         <v>2021</v>
       </c>
       <c r="D54" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E54" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="F54" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>448</v>
+        <v>530</v>
       </c>
       <c r="H54" t="s">
-        <v>537</v>
+        <v>671</v>
       </c>
       <c r="I54" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J54" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C55">
         <v>2022</v>
       </c>
       <c r="D55" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E55" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="F55" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>449</v>
+        <v>531</v>
       </c>
       <c r="H55" t="s">
-        <v>537</v>
+        <v>672</v>
       </c>
       <c r="I55" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J55" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C56">
         <v>2022</v>
       </c>
       <c r="D56" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E56" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F56" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>450</v>
+        <v>532</v>
       </c>
       <c r="H56" t="s">
-        <v>537</v>
+        <v>673</v>
       </c>
       <c r="I56" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J56" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C57">
         <v>2022</v>
       </c>
       <c r="D57" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E57" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="F57" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>451</v>
+        <v>533</v>
       </c>
       <c r="H57" t="s">
-        <v>537</v>
+        <v>674</v>
       </c>
       <c r="I57" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>761</v>
+      </c>
+      <c r="J57" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C58">
         <v>2022</v>
       </c>
       <c r="D58" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E58" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="F58" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>452</v>
+        <v>534</v>
       </c>
       <c r="H58" t="s">
-        <v>537</v>
+        <v>675</v>
       </c>
       <c r="I58" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J58" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C59">
         <v>2022</v>
       </c>
       <c r="D59" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E59" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="F59" t="s">
         <v>394</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>453</v>
+        <v>535</v>
       </c>
       <c r="H59" t="s">
-        <v>537</v>
+        <v>676</v>
       </c>
       <c r="I59" t="s">
+        <v>760</v>
+      </c>
+      <c r="J59" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" t="s">
-        <v>67</v>
-      </c>
-      <c r="B60" t="s">
-        <v>162</v>
       </c>
       <c r="C60">
         <v>2022</v>
       </c>
       <c r="D60" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E60" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="F60" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>454</v>
+        <v>536</v>
       </c>
       <c r="H60" t="s">
-        <v>537</v>
+        <v>677</v>
       </c>
       <c r="I60" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J60" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C61">
         <v>2021</v>
       </c>
       <c r="D61" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E61" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="F61" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>455</v>
+        <v>537</v>
       </c>
       <c r="H61" t="s">
-        <v>537</v>
+        <v>678</v>
       </c>
       <c r="I61" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J61" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C62">
         <v>2022</v>
       </c>
       <c r="D62" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E62" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="F62" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>456</v>
+        <v>538</v>
       </c>
       <c r="H62" t="s">
-        <v>537</v>
+        <v>679</v>
       </c>
       <c r="I62" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>761</v>
+      </c>
+      <c r="J62" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C63">
         <v>2022</v>
       </c>
       <c r="D63" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E63" t="s">
-        <v>314</v>
+        <v>258</v>
       </c>
       <c r="F63" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>457</v>
+        <v>539</v>
       </c>
       <c r="H63" t="s">
-        <v>537</v>
+        <v>680</v>
       </c>
       <c r="I63" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J63" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C64">
         <v>2022</v>
       </c>
       <c r="D64" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E64" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="F64" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>458</v>
+        <v>540</v>
       </c>
       <c r="H64" t="s">
-        <v>537</v>
+        <v>681</v>
       </c>
       <c r="I64" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J64" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C65">
         <v>2022</v>
       </c>
       <c r="D65" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E65" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="F65" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>459</v>
+        <v>541</v>
       </c>
       <c r="H65" t="s">
-        <v>537</v>
+        <v>682</v>
       </c>
       <c r="I65" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J65" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C66">
         <v>2022</v>
       </c>
       <c r="D66" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E66" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="F66" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>460</v>
+        <v>542</v>
       </c>
       <c r="H66" t="s">
-        <v>537</v>
+        <v>683</v>
       </c>
       <c r="I66" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J66" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B67" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C67">
         <v>2022</v>
       </c>
       <c r="D67" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E67" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="F67" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>461</v>
+        <v>543</v>
       </c>
       <c r="H67" t="s">
-        <v>537</v>
+        <v>684</v>
       </c>
       <c r="I67" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>762</v>
+      </c>
+      <c r="J67" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B68" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C68">
         <v>2022</v>
       </c>
       <c r="D68" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E68" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="F68" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>462</v>
+        <v>544</v>
       </c>
       <c r="H68" t="s">
-        <v>537</v>
+        <v>685</v>
       </c>
       <c r="I68" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>762</v>
+      </c>
+      <c r="J68" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C69">
         <v>2022</v>
       </c>
       <c r="D69" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E69" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="F69" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>463</v>
+        <v>545</v>
       </c>
       <c r="H69" t="s">
-        <v>537</v>
+        <v>686</v>
       </c>
       <c r="I69" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J69" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B70" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C70">
         <v>2022</v>
       </c>
       <c r="D70" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E70" t="s">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="F70" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>464</v>
+        <v>546</v>
       </c>
       <c r="H70" t="s">
-        <v>537</v>
+        <v>687</v>
       </c>
       <c r="I70" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>762</v>
+      </c>
+      <c r="J70" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C71">
         <v>2022</v>
       </c>
       <c r="D71" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E71" t="s">
-        <v>322</v>
+        <v>268</v>
       </c>
       <c r="F71" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>465</v>
+        <v>547</v>
       </c>
       <c r="H71" t="s">
-        <v>537</v>
+        <v>688</v>
       </c>
       <c r="I71" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J71" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C72">
         <v>2022</v>
       </c>
       <c r="D72" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E72" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="F72" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>466</v>
+        <v>548</v>
       </c>
       <c r="H72" t="s">
-        <v>537</v>
+        <v>689</v>
       </c>
       <c r="I72" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J72" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B73" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C73">
         <v>2022</v>
       </c>
       <c r="D73" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E73" t="s">
-        <v>324</v>
+        <v>278</v>
       </c>
       <c r="F73" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>467</v>
+        <v>549</v>
       </c>
       <c r="H73" t="s">
-        <v>537</v>
+        <v>690</v>
       </c>
       <c r="I73" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J73" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B74" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C74">
         <v>2022</v>
       </c>
       <c r="D74" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E74" t="s">
-        <v>325</v>
+        <v>281</v>
       </c>
       <c r="F74" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>468</v>
+        <v>550</v>
       </c>
       <c r="H74" t="s">
-        <v>537</v>
+        <v>691</v>
       </c>
       <c r="I74" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J74" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C75">
         <v>2022</v>
       </c>
       <c r="D75" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E75" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="F75" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>469</v>
+        <v>551</v>
       </c>
       <c r="H75" t="s">
-        <v>537</v>
+        <v>692</v>
       </c>
       <c r="I75" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J75" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B76" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C76">
         <v>2022</v>
       </c>
       <c r="D76" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E76" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="F76" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>470</v>
+        <v>552</v>
       </c>
       <c r="H76" t="s">
-        <v>537</v>
+        <v>693</v>
       </c>
       <c r="I76" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J76" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B77" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C77">
         <v>2022</v>
       </c>
       <c r="D77" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E77" t="s">
-        <v>328</v>
+        <v>279</v>
       </c>
       <c r="F77" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>471</v>
+        <v>553</v>
       </c>
       <c r="H77" t="s">
-        <v>537</v>
+        <v>694</v>
       </c>
       <c r="I77" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J77" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B78" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C78">
         <v>2022</v>
       </c>
       <c r="D78" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E78" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
       <c r="F78" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>472</v>
+        <v>554</v>
       </c>
       <c r="H78" t="s">
-        <v>537</v>
+        <v>695</v>
       </c>
       <c r="I78" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J78" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B79" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C79">
         <v>2022</v>
       </c>
       <c r="D79" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E79" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="F79" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>473</v>
+        <v>555</v>
       </c>
       <c r="H79" t="s">
-        <v>537</v>
+        <v>696</v>
       </c>
       <c r="I79" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J79" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B80" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C80">
         <v>2022</v>
       </c>
       <c r="D80" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E80" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="F80" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>474</v>
+        <v>556</v>
       </c>
       <c r="H80" t="s">
-        <v>537</v>
+        <v>697</v>
       </c>
       <c r="I80" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J80" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B81" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C81">
         <v>2022</v>
       </c>
       <c r="D81" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E81" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="F81" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>475</v>
+        <v>557</v>
       </c>
       <c r="H81" t="s">
-        <v>537</v>
+        <v>698</v>
       </c>
       <c r="I81" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J81" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C82">
         <v>2023</v>
       </c>
       <c r="D82" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E82" t="s">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="F82" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>476</v>
+        <v>558</v>
       </c>
       <c r="H82" t="s">
-        <v>537</v>
+        <v>699</v>
       </c>
       <c r="I82" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J82" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B83" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C83">
         <v>2022</v>
       </c>
       <c r="D83" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E83" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="F83" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>477</v>
+        <v>559</v>
       </c>
       <c r="H83" t="s">
-        <v>537</v>
+        <v>700</v>
       </c>
       <c r="I83" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J83" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B84" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C84">
         <v>2022</v>
       </c>
       <c r="D84" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E84" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="F84" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>478</v>
+        <v>560</v>
       </c>
       <c r="H84" t="s">
-        <v>537</v>
+        <v>701</v>
       </c>
       <c r="I84" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J84" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B85" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C85">
         <v>2022</v>
       </c>
       <c r="D85" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E85" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="F85" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>479</v>
+        <v>561</v>
       </c>
       <c r="H85" t="s">
-        <v>537</v>
+        <v>702</v>
       </c>
       <c r="I85" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J85" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B86" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C86">
         <v>2023</v>
       </c>
       <c r="D86" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E86" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="F86" t="s">
-        <v>394</v>
+        <v>421</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>480</v>
+        <v>562</v>
       </c>
       <c r="H86" t="s">
-        <v>537</v>
+        <v>703</v>
       </c>
       <c r="I86" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J86" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B87" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C87">
         <v>2023</v>
       </c>
       <c r="D87" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E87" t="s">
-        <v>338</v>
+        <v>302</v>
       </c>
       <c r="F87" t="s">
-        <v>394</v>
+        <v>422</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>481</v>
+        <v>563</v>
       </c>
       <c r="H87" t="s">
-        <v>537</v>
+        <v>704</v>
       </c>
       <c r="I87" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J87" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B88" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C88">
         <v>2023</v>
       </c>
       <c r="D88" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E88" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="F88" t="s">
-        <v>394</v>
+        <v>423</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>482</v>
+        <v>564</v>
       </c>
       <c r="H88" t="s">
-        <v>537</v>
+        <v>705</v>
       </c>
       <c r="I88" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J88" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B89" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C89">
         <v>2023</v>
       </c>
       <c r="D89" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E89" t="s">
-        <v>340</v>
+        <v>286</v>
       </c>
       <c r="F89" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>483</v>
+        <v>565</v>
       </c>
       <c r="H89" t="s">
-        <v>537</v>
+        <v>706</v>
       </c>
       <c r="I89" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J89" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B90" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C90">
         <v>2022</v>
       </c>
       <c r="D90" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E90" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="F90" t="s">
-        <v>394</v>
+        <v>425</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>484</v>
+        <v>566</v>
       </c>
       <c r="H90" t="s">
-        <v>537</v>
+        <v>707</v>
       </c>
       <c r="I90" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J90" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B91" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C91">
         <v>2022</v>
       </c>
       <c r="D91" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E91" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="F91" t="s">
-        <v>394</v>
+        <v>426</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>485</v>
+        <v>567</v>
       </c>
       <c r="H91" t="s">
-        <v>537</v>
+        <v>708</v>
       </c>
       <c r="I91" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J91" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B92" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C92">
         <v>2023</v>
       </c>
       <c r="D92" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E92" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="F92" t="s">
-        <v>394</v>
+        <v>427</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>486</v>
+        <v>568</v>
       </c>
       <c r="H92" t="s">
-        <v>537</v>
+        <v>709</v>
       </c>
       <c r="I92" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J92" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B93" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C93">
         <v>2023</v>
       </c>
       <c r="D93" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E93" t="s">
-        <v>344</v>
+        <v>268</v>
       </c>
       <c r="F93" t="s">
-        <v>394</v>
+        <v>428</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>487</v>
+        <v>569</v>
       </c>
       <c r="H93" t="s">
-        <v>537</v>
+        <v>710</v>
       </c>
       <c r="I93" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J93" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B94" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C94">
         <v>2023</v>
       </c>
       <c r="D94" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E94" t="s">
-        <v>345</v>
+        <v>268</v>
       </c>
       <c r="F94" t="s">
-        <v>394</v>
+        <v>429</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>488</v>
+        <v>570</v>
       </c>
       <c r="H94" t="s">
-        <v>537</v>
+        <v>711</v>
       </c>
       <c r="I94" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J94" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B95" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C95">
         <v>2023</v>
       </c>
       <c r="D95" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E95" t="s">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="F95" t="s">
-        <v>394</v>
+        <v>430</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>489</v>
+        <v>571</v>
       </c>
       <c r="H95" t="s">
-        <v>537</v>
+        <v>712</v>
       </c>
       <c r="I95" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J95" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B96" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C96">
         <v>2023</v>
       </c>
       <c r="D96" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E96" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="F96" t="s">
-        <v>394</v>
+        <v>431</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>490</v>
+        <v>572</v>
       </c>
       <c r="H96" t="s">
-        <v>537</v>
+        <v>713</v>
       </c>
       <c r="I96" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J96" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B97" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C97">
         <v>2023</v>
       </c>
       <c r="D97" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E97" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="F97" t="s">
-        <v>394</v>
+        <v>432</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>491</v>
+        <v>573</v>
       </c>
       <c r="H97" t="s">
-        <v>537</v>
+        <v>714</v>
       </c>
       <c r="I97" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J97" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B98" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C98">
         <v>2023</v>
       </c>
       <c r="D98" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E98" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="F98" t="s">
-        <v>394</v>
+        <v>433</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>492</v>
+        <v>574</v>
       </c>
       <c r="H98" t="s">
-        <v>537</v>
+        <v>715</v>
       </c>
       <c r="I98" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J98" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B99" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C99">
         <v>2023</v>
       </c>
       <c r="D99" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E99" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="F99" t="s">
-        <v>394</v>
+        <v>434</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>493</v>
+        <v>575</v>
       </c>
       <c r="H99" t="s">
-        <v>537</v>
+        <v>716</v>
       </c>
       <c r="I99" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J99" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B100" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C100">
         <v>2023</v>
       </c>
       <c r="D100" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E100" t="s">
-        <v>351</v>
+        <v>268</v>
       </c>
       <c r="F100" t="s">
-        <v>394</v>
+        <v>435</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>494</v>
+        <v>576</v>
       </c>
       <c r="H100" t="s">
-        <v>537</v>
+        <v>717</v>
       </c>
       <c r="I100" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J100" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B101" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C101">
         <v>2023</v>
       </c>
       <c r="D101" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E101" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="F101" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>495</v>
+        <v>577</v>
       </c>
       <c r="H101" t="s">
-        <v>537</v>
+        <v>718</v>
       </c>
       <c r="I101" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J101" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B102" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C102">
         <v>2023</v>
       </c>
       <c r="D102" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E102" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="F102" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>496</v>
+        <v>578</v>
       </c>
       <c r="H102" t="s">
-        <v>537</v>
+        <v>719</v>
       </c>
       <c r="I102" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J102" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B103" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C103">
         <v>2023</v>
       </c>
       <c r="D103" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E103" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="F103" t="s">
-        <v>394</v>
+        <v>438</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>497</v>
+        <v>579</v>
       </c>
       <c r="H103" t="s">
-        <v>537</v>
+        <v>720</v>
       </c>
       <c r="I103" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J103" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B104" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C104">
         <v>2023</v>
       </c>
       <c r="D104" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E104" t="s">
-        <v>355</v>
+        <v>290</v>
       </c>
       <c r="F104" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>498</v>
+        <v>580</v>
       </c>
       <c r="H104" t="s">
-        <v>537</v>
+        <v>721</v>
       </c>
       <c r="I104" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J104" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B105" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C105">
         <v>2023</v>
       </c>
       <c r="D105" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E105" t="s">
-        <v>356</v>
+        <v>268</v>
       </c>
       <c r="F105" t="s">
-        <v>394</v>
+        <v>440</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>499</v>
+        <v>581</v>
       </c>
       <c r="H105" t="s">
-        <v>537</v>
+        <v>722</v>
       </c>
       <c r="I105" t="s">
+        <v>760</v>
+      </c>
+      <c r="J105" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" t="s">
+        <v>114</v>
+      </c>
+      <c r="B106" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
-      <c r="A106" t="s">
-        <v>113</v>
-      </c>
-      <c r="B106" t="s">
-        <v>164</v>
       </c>
       <c r="C106">
         <v>2023</v>
       </c>
       <c r="D106" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E106" t="s">
-        <v>357</v>
+        <v>291</v>
       </c>
       <c r="F106" t="s">
-        <v>394</v>
+        <v>441</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>500</v>
+        <v>582</v>
       </c>
       <c r="H106" t="s">
-        <v>537</v>
+        <v>723</v>
       </c>
       <c r="I106" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J106" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B107" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C107">
         <v>2023</v>
       </c>
       <c r="D107" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E107" t="s">
-        <v>358</v>
+        <v>277</v>
       </c>
       <c r="F107" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>501</v>
+        <v>583</v>
       </c>
       <c r="H107" t="s">
-        <v>537</v>
+        <v>724</v>
       </c>
       <c r="I107" t="s">
+        <v>760</v>
+      </c>
+      <c r="J107" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" t="s">
+        <v>116</v>
+      </c>
+      <c r="B108" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108" t="s">
-        <v>115</v>
-      </c>
-      <c r="B108" t="s">
-        <v>160</v>
       </c>
       <c r="C108">
         <v>2023</v>
       </c>
       <c r="D108" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E108" t="s">
-        <v>359</v>
+        <v>321</v>
       </c>
       <c r="F108" t="s">
-        <v>394</v>
+        <v>443</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>502</v>
+        <v>584</v>
       </c>
       <c r="H108" t="s">
-        <v>537</v>
+        <v>725</v>
       </c>
       <c r="I108" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J108" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B109" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C109">
         <v>2023</v>
       </c>
       <c r="D109" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E109" t="s">
-        <v>360</v>
+        <v>263</v>
       </c>
       <c r="F109" t="s">
-        <v>394</v>
+        <v>444</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>503</v>
+        <v>585</v>
       </c>
       <c r="H109" t="s">
-        <v>537</v>
+        <v>726</v>
       </c>
       <c r="I109" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J109" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B110" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C110">
         <v>2023</v>
       </c>
       <c r="D110" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E110" t="s">
-        <v>361</v>
+        <v>254</v>
       </c>
       <c r="F110" t="s">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>504</v>
+        <v>586</v>
       </c>
       <c r="H110" t="s">
-        <v>537</v>
+        <v>727</v>
       </c>
       <c r="I110" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J110" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B111" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C111">
         <v>2023</v>
       </c>
       <c r="D111" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E111" t="s">
-        <v>362</v>
+        <v>258</v>
       </c>
       <c r="F111" t="s">
-        <v>394</v>
+        <v>446</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="H111" t="s">
-        <v>537</v>
+        <v>728</v>
       </c>
       <c r="I111" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>761</v>
+      </c>
+      <c r="J111" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B112" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C112">
         <v>2023</v>
       </c>
       <c r="D112" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E112" t="s">
-        <v>363</v>
+        <v>268</v>
       </c>
       <c r="F112" t="s">
-        <v>394</v>
+        <v>447</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>506</v>
+        <v>588</v>
       </c>
       <c r="H112" t="s">
-        <v>537</v>
+        <v>729</v>
       </c>
       <c r="I112" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J112" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B113" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C113">
         <v>2023</v>
       </c>
       <c r="D113" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E113" t="s">
-        <v>364</v>
+        <v>254</v>
       </c>
       <c r="F113" t="s">
-        <v>394</v>
+        <v>448</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>507</v>
+        <v>589</v>
       </c>
       <c r="H113" t="s">
-        <v>537</v>
+        <v>730</v>
       </c>
       <c r="I113" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J113" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B114" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C114">
         <v>2023</v>
       </c>
       <c r="D114" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E114" t="s">
-        <v>365</v>
+        <v>277</v>
       </c>
       <c r="F114" t="s">
-        <v>394</v>
+        <v>449</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>508</v>
+        <v>590</v>
       </c>
       <c r="H114" t="s">
-        <v>537</v>
+        <v>731</v>
       </c>
       <c r="I114" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J114" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B115" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C115">
         <v>2023</v>
       </c>
       <c r="D115" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E115" t="s">
-        <v>366</v>
+        <v>322</v>
       </c>
       <c r="F115" t="s">
-        <v>394</v>
+        <v>450</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>509</v>
+        <v>591</v>
       </c>
       <c r="H115" t="s">
-        <v>537</v>
+        <v>732</v>
       </c>
       <c r="I115" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J115" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B116" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C116">
         <v>2022</v>
       </c>
       <c r="D116" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E116" t="s">
-        <v>367</v>
+        <v>323</v>
       </c>
       <c r="F116" t="s">
-        <v>394</v>
+        <v>451</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>510</v>
+        <v>592</v>
       </c>
       <c r="H116" t="s">
-        <v>537</v>
+        <v>733</v>
       </c>
       <c r="I116" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J116" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B117" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C117">
         <v>2023</v>
       </c>
       <c r="D117" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E117" t="s">
-        <v>368</v>
+        <v>324</v>
       </c>
       <c r="F117" t="s">
-        <v>394</v>
+        <v>452</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>511</v>
+        <v>593</v>
       </c>
       <c r="H117" t="s">
-        <v>537</v>
+        <v>734</v>
       </c>
       <c r="I117" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J117" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B118" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C118">
         <v>2023</v>
       </c>
       <c r="D118" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E118" t="s">
-        <v>369</v>
+        <v>325</v>
       </c>
       <c r="F118" t="s">
-        <v>394</v>
+        <v>453</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>512</v>
+        <v>594</v>
       </c>
       <c r="H118" t="s">
-        <v>537</v>
+        <v>735</v>
       </c>
       <c r="I118" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J118" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B119" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C119">
         <v>2024</v>
       </c>
       <c r="D119" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E119" t="s">
-        <v>370</v>
+        <v>267</v>
       </c>
       <c r="F119" t="s">
-        <v>394</v>
+        <v>454</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>513</v>
+        <v>595</v>
       </c>
       <c r="H119" t="s">
-        <v>537</v>
+        <v>736</v>
       </c>
       <c r="I119" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J119" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B120" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C120">
         <v>2024</v>
       </c>
       <c r="D120" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E120" t="s">
-        <v>371</v>
+        <v>326</v>
       </c>
       <c r="F120" t="s">
-        <v>394</v>
+        <v>455</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>514</v>
+        <v>596</v>
       </c>
       <c r="H120" t="s">
-        <v>537</v>
+        <v>737</v>
       </c>
       <c r="I120" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J120" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B121" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C121">
         <v>2024</v>
       </c>
       <c r="D121" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E121" t="s">
-        <v>372</v>
+        <v>305</v>
       </c>
       <c r="F121" t="s">
-        <v>394</v>
+        <v>456</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>515</v>
+        <v>597</v>
       </c>
       <c r="H121" t="s">
-        <v>537</v>
+        <v>738</v>
       </c>
       <c r="I121" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J121" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B122" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C122">
         <v>2024</v>
       </c>
       <c r="D122" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E122" t="s">
-        <v>373</v>
+        <v>287</v>
       </c>
       <c r="F122" t="s">
-        <v>394</v>
+        <v>457</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>516</v>
+        <v>598</v>
       </c>
       <c r="H122" t="s">
-        <v>537</v>
+        <v>739</v>
       </c>
       <c r="I122" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>761</v>
+      </c>
+      <c r="J122" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B123" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C123">
         <v>2024</v>
       </c>
       <c r="D123" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E123" t="s">
-        <v>374</v>
+        <v>327</v>
       </c>
       <c r="F123" t="s">
-        <v>394</v>
+        <v>458</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>517</v>
+        <v>599</v>
       </c>
       <c r="H123" t="s">
-        <v>537</v>
+        <v>740</v>
       </c>
       <c r="I123" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J123" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B124" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C124">
         <v>2024</v>
       </c>
       <c r="D124" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E124" t="s">
-        <v>375</v>
+        <v>277</v>
       </c>
       <c r="F124" t="s">
-        <v>394</v>
+        <v>459</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>518</v>
+        <v>600</v>
       </c>
       <c r="H124" t="s">
-        <v>537</v>
+        <v>741</v>
       </c>
       <c r="I124" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J124" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B125" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C125">
         <v>2024</v>
       </c>
       <c r="D125" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E125" t="s">
-        <v>376</v>
+        <v>263</v>
       </c>
       <c r="F125" t="s">
-        <v>394</v>
+        <v>460</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>519</v>
+        <v>601</v>
       </c>
       <c r="H125" t="s">
-        <v>537</v>
+        <v>742</v>
       </c>
       <c r="I125" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J125" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B126" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C126">
         <v>2023</v>
       </c>
       <c r="D126" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E126" t="s">
-        <v>377</v>
+        <v>323</v>
       </c>
       <c r="F126" t="s">
-        <v>394</v>
+        <v>461</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>520</v>
+        <v>602</v>
       </c>
       <c r="H126" t="s">
-        <v>537</v>
+        <v>743</v>
       </c>
       <c r="I126" t="s">
+        <v>760</v>
+      </c>
+      <c r="J126" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" t="s">
+        <v>135</v>
+      </c>
+      <c r="B127" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
-      <c r="A127" t="s">
-        <v>134</v>
-      </c>
-      <c r="B127" t="s">
-        <v>150</v>
       </c>
       <c r="C127">
         <v>2024</v>
       </c>
       <c r="D127" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E127" t="s">
-        <v>378</v>
+        <v>328</v>
       </c>
       <c r="F127" t="s">
-        <v>394</v>
+        <v>462</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>521</v>
+        <v>603</v>
       </c>
       <c r="H127" t="s">
-        <v>537</v>
+        <v>744</v>
       </c>
       <c r="I127" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>761</v>
+      </c>
+      <c r="J127" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B128" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C128">
         <v>2024</v>
       </c>
       <c r="D128" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E128" t="s">
-        <v>379</v>
+        <v>304</v>
       </c>
       <c r="F128" t="s">
-        <v>394</v>
+        <v>463</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>522</v>
+        <v>604</v>
       </c>
       <c r="H128" t="s">
-        <v>537</v>
+        <v>745</v>
       </c>
       <c r="I128" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J128" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B129" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C129">
         <v>2024</v>
       </c>
       <c r="D129" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E129" t="s">
-        <v>380</v>
+        <v>282</v>
       </c>
       <c r="F129" t="s">
-        <v>394</v>
+        <v>464</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>523</v>
+        <v>605</v>
       </c>
       <c r="H129" t="s">
-        <v>537</v>
+        <v>746</v>
       </c>
       <c r="I129" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J129" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B130" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C130">
         <v>2021</v>
       </c>
       <c r="D130" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E130" t="s">
-        <v>381</v>
+        <v>329</v>
       </c>
       <c r="F130" t="s">
-        <v>394</v>
+        <v>465</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>524</v>
+        <v>606</v>
       </c>
       <c r="H130" t="s">
-        <v>537</v>
+        <v>747</v>
       </c>
       <c r="I130" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J130" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B131" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C131">
         <v>2024</v>
       </c>
       <c r="D131" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E131" t="s">
-        <v>382</v>
+        <v>304</v>
       </c>
       <c r="F131" t="s">
-        <v>394</v>
+        <v>466</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>525</v>
+        <v>607</v>
       </c>
       <c r="H131" t="s">
-        <v>537</v>
+        <v>748</v>
       </c>
       <c r="I131" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J131" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B132" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C132">
         <v>2024</v>
       </c>
       <c r="D132" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E132" t="s">
-        <v>383</v>
+        <v>330</v>
       </c>
       <c r="F132" t="s">
-        <v>394</v>
+        <v>467</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>526</v>
+        <v>608</v>
       </c>
       <c r="H132" t="s">
-        <v>537</v>
+        <v>749</v>
       </c>
       <c r="I132" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J132" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B133" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C133">
         <v>2024</v>
       </c>
       <c r="D133" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E133" t="s">
-        <v>384</v>
+        <v>258</v>
       </c>
       <c r="F133" t="s">
-        <v>394</v>
+        <v>468</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>527</v>
+        <v>609</v>
       </c>
       <c r="H133" t="s">
-        <v>537</v>
+        <v>750</v>
       </c>
       <c r="I133" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J133" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B134" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C134">
         <v>2024</v>
       </c>
       <c r="D134" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E134" t="s">
-        <v>385</v>
+        <v>331</v>
       </c>
       <c r="F134" t="s">
-        <v>395</v>
+        <v>469</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>528</v>
+        <v>610</v>
       </c>
       <c r="H134" t="s">
-        <v>537</v>
+        <v>751</v>
       </c>
       <c r="I134" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>762</v>
+      </c>
+      <c r="J134" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B135" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C135">
         <v>2024</v>
       </c>
       <c r="D135" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E135" t="s">
-        <v>386</v>
+        <v>258</v>
       </c>
       <c r="F135" t="s">
-        <v>394</v>
+        <v>470</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>529</v>
+        <v>611</v>
       </c>
       <c r="H135" t="s">
-        <v>537</v>
+        <v>752</v>
       </c>
       <c r="I135" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J135" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B136" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C136">
         <v>2024</v>
       </c>
       <c r="D136" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E136" t="s">
-        <v>387</v>
+        <v>332</v>
       </c>
       <c r="F136" t="s">
-        <v>394</v>
+        <v>471</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>530</v>
+        <v>612</v>
       </c>
       <c r="H136" t="s">
-        <v>537</v>
+        <v>753</v>
       </c>
       <c r="I136" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J136" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B137" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C137">
         <v>2024</v>
       </c>
       <c r="D137" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E137" t="s">
-        <v>388</v>
+        <v>276</v>
       </c>
       <c r="F137" t="s">
-        <v>394</v>
+        <v>472</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>531</v>
+        <v>613</v>
       </c>
       <c r="H137" t="s">
-        <v>537</v>
+        <v>754</v>
       </c>
       <c r="I137" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J137" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B138" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C138">
         <v>2023</v>
       </c>
       <c r="D138" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E138" t="s">
-        <v>389</v>
+        <v>333</v>
       </c>
       <c r="F138" t="s">
-        <v>394</v>
+        <v>473</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>532</v>
+        <v>614</v>
       </c>
       <c r="H138" t="s">
-        <v>537</v>
+        <v>755</v>
       </c>
       <c r="I138" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J138" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B139" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C139">
         <v>2024</v>
       </c>
       <c r="D139" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E139" t="s">
-        <v>390</v>
+        <v>334</v>
       </c>
       <c r="F139" t="s">
-        <v>394</v>
+        <v>474</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>533</v>
+        <v>615</v>
       </c>
       <c r="H139" t="s">
-        <v>537</v>
+        <v>756</v>
       </c>
       <c r="I139" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J139" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B140" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C140">
         <v>2024</v>
       </c>
       <c r="D140" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E140" t="s">
-        <v>391</v>
+        <v>311</v>
       </c>
       <c r="F140" t="s">
-        <v>394</v>
+        <v>475</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>534</v>
+        <v>616</v>
       </c>
       <c r="H140" t="s">
-        <v>537</v>
+        <v>757</v>
       </c>
       <c r="I140" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>760</v>
+      </c>
+      <c r="J140" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B141" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C141">
         <v>2024</v>
       </c>
       <c r="D141" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E141" t="s">
-        <v>392</v>
+        <v>335</v>
       </c>
       <c r="F141" t="s">
-        <v>394</v>
+        <v>476</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>535</v>
+        <v>617</v>
       </c>
       <c r="H141" t="s">
-        <v>537</v>
+        <v>758</v>
       </c>
       <c r="I141" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>761</v>
+      </c>
+      <c r="J141" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B142" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C142">
         <v>2024</v>
       </c>
       <c r="D142" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E142" t="s">
-        <v>393</v>
+        <v>336</v>
       </c>
       <c r="F142" t="s">
-        <v>394</v>
+        <v>477</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>536</v>
+        <v>618</v>
       </c>
       <c r="H142" t="s">
-        <v>537</v>
+        <v>759</v>
       </c>
       <c r="I142" t="s">
-        <v>151</v>
+        <v>760</v>
+      </c>
+      <c r="J142" t="s">
+        <v>764</v>
       </c>
     </row>
   </sheetData>
@@ -6339,7 +7485,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6376,118 +7522,234 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>538</v>
+        <v>765</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C2">
         <v>2023</v>
       </c>
       <c r="D2" t="s">
-        <v>542</v>
+        <v>769</v>
       </c>
       <c r="E2" t="s">
-        <v>544</v>
+        <v>771</v>
       </c>
       <c r="F2" t="s">
-        <v>395</v>
+        <v>773</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>548</v>
+        <v>777</v>
       </c>
       <c r="H2" t="s">
-        <v>537</v>
+        <v>785</v>
       </c>
       <c r="I2" t="s">
-        <v>161</v>
+        <v>762</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>539</v>
+        <v>766</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C3">
         <v>2023</v>
       </c>
       <c r="D3" t="s">
-        <v>543</v>
+        <v>770</v>
       </c>
       <c r="E3" t="s">
-        <v>545</v>
+        <v>772</v>
       </c>
       <c r="F3" t="s">
-        <v>395</v>
+        <v>774</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>549</v>
+        <v>778</v>
       </c>
       <c r="H3" t="s">
-        <v>537</v>
+        <v>786</v>
       </c>
       <c r="I3" t="s">
-        <v>150</v>
+        <v>762</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>540</v>
+        <v>767</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C4">
         <v>2023</v>
       </c>
       <c r="D4" t="s">
-        <v>543</v>
+        <v>770</v>
       </c>
       <c r="E4" t="s">
-        <v>546</v>
+        <v>772</v>
       </c>
       <c r="F4" t="s">
-        <v>395</v>
+        <v>775</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>550</v>
+        <v>779</v>
       </c>
       <c r="H4" t="s">
-        <v>537</v>
+        <v>787</v>
       </c>
       <c r="I4" t="s">
-        <v>165</v>
+        <v>762</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>541</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C5">
         <v>2023</v>
       </c>
       <c r="D5" t="s">
-        <v>543</v>
+        <v>194</v>
       </c>
       <c r="E5" t="s">
-        <v>547</v>
+        <v>277</v>
       </c>
       <c r="F5" t="s">
-        <v>395</v>
+        <v>442</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>551</v>
+        <v>780</v>
       </c>
       <c r="H5" t="s">
-        <v>537</v>
+        <v>788</v>
       </c>
       <c r="I5" t="s">
-        <v>156</v>
+        <v>760</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>768</v>
+      </c>
+      <c r="B6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6">
+        <v>2023</v>
+      </c>
+      <c r="D6" t="s">
+        <v>770</v>
+      </c>
+      <c r="E6" t="s">
+        <v>772</v>
+      </c>
+      <c r="F6" t="s">
+        <v>776</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="H6" t="s">
+        <v>789</v>
+      </c>
+      <c r="I6" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7">
+        <v>2024</v>
+      </c>
+      <c r="D7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F7" t="s">
+        <v>454</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="H7" t="s">
+        <v>790</v>
+      </c>
+      <c r="I7" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8">
+        <v>2024</v>
+      </c>
+      <c r="D8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F8" t="s">
+        <v>455</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="H8" t="s">
+        <v>791</v>
+      </c>
+      <c r="I8" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9">
+        <v>2024</v>
+      </c>
+      <c r="D9" t="s">
+        <v>251</v>
+      </c>
+      <c r="E9" t="s">
+        <v>334</v>
+      </c>
+      <c r="F9" t="s">
+        <v>474</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="H9" t="s">
+        <v>792</v>
+      </c>
+      <c r="I9" t="s">
+        <v>760</v>
       </c>
     </row>
   </sheetData>
@@ -6496,6 +7758,10 @@
     <hyperlink ref="G3" r:id="rId2"/>
     <hyperlink ref="G4" r:id="rId3"/>
     <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="G6" r:id="rId5"/>
+    <hyperlink ref="G7" r:id="rId6"/>
+    <hyperlink ref="G8" r:id="rId7"/>
+    <hyperlink ref="G9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6511,15 +7777,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>552</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>553</v>
+        <v>793</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -6527,7 +7793,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B3">
         <v>61</v>
@@ -6535,7 +7801,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B4">
         <v>24</v>
@@ -6543,7 +7809,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -6551,7 +7817,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B6">
         <v>37</v>
@@ -6559,7 +7825,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B7">
         <v>51</v>
@@ -6583,10 +7849,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>553</v>
+        <v>793</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>554</v>
+        <v>794</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6597,7 +7863,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6608,7 +7874,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6619,7 +7885,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6630,7 +7896,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>555</v>
+        <v>795</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6641,7 +7907,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>556</v>
+        <v>796</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6652,7 +7918,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6663,7 +7929,7 @@
         <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>557</v>
+        <v>797</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6674,7 +7940,7 @@
         <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>558</v>
+        <v>798</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6685,7 +7951,7 @@
         <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>557</v>
+        <v>797</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6696,7 +7962,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>557</v>
+        <v>797</v>
       </c>
     </row>
   </sheetData>
@@ -6706,7 +7972,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6714,21 +7980,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>553</v>
+        <v>793</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>554</v>
+        <v>794</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>394</v>
+        <v>760</v>
       </c>
       <c r="B2">
         <v>2014</v>
@@ -6737,26 +8003,26 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>394</v>
+        <v>760</v>
       </c>
       <c r="B3">
         <v>2015</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>394</v>
+        <v>760</v>
       </c>
       <c r="B4">
         <v>2017</v>
@@ -6765,12 +8031,12 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>394</v>
+        <v>760</v>
       </c>
       <c r="B5">
         <v>2018</v>
@@ -6779,12 +8045,12 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>555</v>
+        <v>795</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>394</v>
+        <v>760</v>
       </c>
       <c r="B6">
         <v>2019</v>
@@ -6793,12 +8059,12 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>556</v>
+        <v>796</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>394</v>
+        <v>760</v>
       </c>
       <c r="B7">
         <v>2020</v>
@@ -6807,68 +8073,68 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>394</v>
+        <v>760</v>
       </c>
       <c r="B8">
         <v>2021</v>
       </c>
       <c r="C8">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>557</v>
+        <v>797</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>394</v>
+        <v>760</v>
       </c>
       <c r="B9">
         <v>2022</v>
       </c>
       <c r="C9">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>558</v>
+        <v>798</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>394</v>
+        <v>760</v>
       </c>
       <c r="B10">
         <v>2023</v>
       </c>
       <c r="C10">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>557</v>
+        <v>797</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>394</v>
+        <v>760</v>
       </c>
       <c r="B11">
         <v>2024</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>557</v>
+        <v>797</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>395</v>
+        <v>762</v>
       </c>
       <c r="B12">
         <v>2020</v>
@@ -6877,12 +8143,12 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>395</v>
+        <v>762</v>
       </c>
       <c r="B13">
         <v>2021</v>
@@ -6891,12 +8157,12 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>395</v>
+        <v>762</v>
       </c>
       <c r="B14">
         <v>2022</v>
@@ -6905,12 +8171,12 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>395</v>
+        <v>762</v>
       </c>
       <c r="B15">
         <v>2024</v>
@@ -6919,7 +8185,77 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>761</v>
+      </c>
+      <c r="B16">
+        <v>2015</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>761</v>
+      </c>
+      <c r="B17">
+        <v>2021</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>761</v>
+      </c>
+      <c r="B18">
+        <v>2022</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>761</v>
+      </c>
+      <c r="B19">
+        <v>2023</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>761</v>
+      </c>
+      <c r="B20">
+        <v>2024</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
